--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="行业" sheetId="1" r:id="rId1"/>
@@ -2135,14 +2135,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2467,7 +2470,7 @@
   <dimension ref="A1:C336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2534,7 +2537,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2655,7 +2658,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2677,7 +2680,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2688,7 +2691,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2754,7 +2757,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3040,7 +3043,7 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3073,7 +3076,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3084,7 +3087,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3095,7 +3098,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3106,7 +3109,7 @@
       <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3117,7 +3120,7 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3128,7 +3131,7 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3139,7 +3142,7 @@
       <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3150,7 +3153,7 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3161,7 +3164,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3172,7 +3175,7 @@
       <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3183,7 +3186,7 @@
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3205,7 +3208,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3216,7 +3219,7 @@
       <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3227,7 +3230,7 @@
       <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3348,7 +3351,7 @@
       <c r="B80" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3359,7 +3362,7 @@
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3370,7 +3373,7 @@
       <c r="B82" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3381,7 +3384,7 @@
       <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3392,7 +3395,7 @@
       <c r="B84" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3766,7 +3769,7 @@
       <c r="B118" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3777,7 +3780,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3788,7 +3791,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="3" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3799,7 +3802,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3810,7 +3813,7 @@
       <c r="B122" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3821,7 +3824,7 @@
       <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3832,7 +3835,7 @@
       <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3843,7 +3846,7 @@
       <c r="B125" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3854,7 +3857,7 @@
       <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3865,7 +3868,7 @@
       <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3876,7 +3879,7 @@
       <c r="B128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3887,7 +3890,7 @@
       <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4294,7 +4297,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4305,7 +4308,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="3" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4316,7 +4319,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4327,7 +4330,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4338,7 +4341,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="3" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4349,7 +4352,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="3" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4360,7 +4363,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="3" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4371,7 +4374,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4382,7 +4385,7 @@
       <c r="B174" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4393,7 +4396,7 @@
       <c r="B175" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4404,7 +4407,7 @@
       <c r="B176" t="s">
         <v>256</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4415,7 +4418,7 @@
       <c r="B177" t="s">
         <v>256</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4426,7 +4429,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="3" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4437,7 +4440,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4448,7 +4451,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4459,7 +4462,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="3" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4470,7 +4473,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4481,7 +4484,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="3" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4492,7 +4495,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="3" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4503,7 +4506,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4514,7 +4517,7 @@
       <c r="B186" t="s">
         <v>271</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4525,7 +4528,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="3" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4536,7 +4539,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4547,7 +4550,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="3" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4558,7 +4561,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="3" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4734,7 +4737,7 @@
       <c r="B206" t="s">
         <v>304</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="3" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4745,7 +4748,7 @@
       <c r="B207" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4756,7 +4759,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="3" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4767,7 +4770,7 @@
       <c r="B209" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="3" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4778,7 +4781,7 @@
       <c r="B210" t="s">
         <v>304</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="3" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4789,7 +4792,7 @@
       <c r="B211" t="s">
         <v>310</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="3" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4822,7 +4825,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4833,7 +4836,7 @@
       <c r="B215" t="s">
         <v>316</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4844,7 +4847,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4855,7 +4858,7 @@
       <c r="B217" t="s">
         <v>316</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="3" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4866,7 +4869,7 @@
       <c r="B218" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="3" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4877,7 +4880,7 @@
       <c r="B219" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="3" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4888,7 +4891,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="3" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4899,7 +4902,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4910,7 +4913,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="3" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4921,7 +4924,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="3" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4932,7 +4935,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="3" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4943,7 +4946,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="3" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4954,7 +4957,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="3" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4965,7 +4968,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4976,7 +4979,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4987,7 +4990,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4998,7 +5001,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5009,7 +5012,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5020,7 +5023,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="3" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5031,7 +5034,7 @@
       <c r="B233" t="s">
         <v>341</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5042,7 +5045,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5053,7 +5056,7 @@
       <c r="B235" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5064,7 +5067,7 @@
       <c r="B236" t="s">
         <v>341</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5075,7 +5078,7 @@
       <c r="B237" t="s">
         <v>341</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="3" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5086,7 +5089,7 @@
       <c r="B238" t="s">
         <v>341</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5097,7 +5100,7 @@
       <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5108,7 +5111,7 @@
       <c r="B240" t="s">
         <v>349</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5130,7 +5133,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5504,7 +5507,7 @@
       <c r="B276" t="s">
         <v>405</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="3" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5515,7 +5518,7 @@
       <c r="B277" t="s">
         <v>405</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="3" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5526,7 +5529,7 @@
       <c r="B278" t="s">
         <v>408</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="3" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5537,7 +5540,7 @@
       <c r="B279" t="s">
         <v>408</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5548,7 +5551,7 @@
       <c r="B280" t="s">
         <v>412</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="3" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5559,7 +5562,7 @@
       <c r="B281" t="s">
         <v>414</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="3" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5570,7 +5573,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="3" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5581,7 +5584,7 @@
       <c r="B283" t="s">
         <v>417</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="3" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5592,7 +5595,7 @@
       <c r="B284" t="s">
         <v>417</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="3" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6043,7 +6046,7 @@
       <c r="B325" t="s">
         <v>482</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C325" s="3" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6054,7 +6057,7 @@
       <c r="B326" t="s">
         <v>482</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="C326" s="3" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6065,7 +6068,7 @@
       <c r="B327" t="s">
         <v>482</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="C327" s="3" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6076,7 +6079,7 @@
       <c r="B328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="C328" s="3" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6087,7 +6090,7 @@
       <c r="B329" t="s">
         <v>488</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="C329" s="3" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6098,7 +6101,7 @@
       <c r="B330" t="s">
         <v>490</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="C330" s="3" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6109,7 +6112,7 @@
       <c r="B331" t="s">
         <v>490</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="C331" s="3" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6120,7 +6123,7 @@
       <c r="B332" t="s">
         <v>493</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="C332" s="3" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6131,7 +6134,7 @@
       <c r="B333" t="s">
         <v>493</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="C333" s="3" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6142,7 +6145,7 @@
       <c r="B334" t="s">
         <v>493</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="C334" s="3" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6153,7 +6156,7 @@
       <c r="B335" t="s">
         <v>497</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C335" s="3" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6164,7 +6167,7 @@
       <c r="B336" t="s">
         <v>497</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C336" s="3" t="s">
         <v>499</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,11 +2135,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2470,7 +2467,7 @@
   <dimension ref="A1:C336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2537,7 +2534,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2658,7 +2655,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2757,7 +2754,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3043,7 +3040,7 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3076,7 +3073,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3087,7 +3084,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3098,7 +3095,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3109,7 +3106,7 @@
       <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3120,7 +3117,7 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3131,7 +3128,7 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3142,7 +3139,7 @@
       <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3153,7 +3150,7 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3164,7 +3161,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3175,7 +3172,7 @@
       <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3208,7 +3205,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3219,7 +3216,7 @@
       <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3230,7 +3227,7 @@
       <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3351,7 +3348,7 @@
       <c r="B80" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3362,7 +3359,7 @@
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3373,7 +3370,7 @@
       <c r="B82" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3384,7 +3381,7 @@
       <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3395,7 +3392,7 @@
       <c r="B84" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3769,7 +3766,7 @@
       <c r="B118" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3780,7 +3777,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3791,7 +3788,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3802,7 +3799,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3813,7 +3810,7 @@
       <c r="B122" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3824,7 +3821,7 @@
       <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3835,7 +3832,7 @@
       <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3846,7 +3843,7 @@
       <c r="B125" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3857,7 +3854,7 @@
       <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3868,7 +3865,7 @@
       <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3879,7 +3876,7 @@
       <c r="B128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3890,7 +3887,7 @@
       <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4297,7 +4294,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4308,7 +4305,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4319,7 +4316,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4330,7 +4327,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4341,7 +4338,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4352,7 +4349,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4363,7 +4360,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4374,7 +4371,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4385,7 +4382,7 @@
       <c r="B174" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4396,7 +4393,7 @@
       <c r="B175" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4407,7 +4404,7 @@
       <c r="B176" t="s">
         <v>256</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4418,7 +4415,7 @@
       <c r="B177" t="s">
         <v>256</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4429,7 +4426,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4440,7 +4437,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4451,7 +4448,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4462,7 +4459,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4473,7 +4470,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4484,7 +4481,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4495,7 +4492,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4506,7 +4503,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4517,7 +4514,7 @@
       <c r="B186" t="s">
         <v>271</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4528,7 +4525,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4539,7 +4536,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4550,7 +4547,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4561,7 +4558,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4737,7 +4734,7 @@
       <c r="B206" t="s">
         <v>304</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4748,7 +4745,7 @@
       <c r="B207" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4759,7 +4756,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4770,7 +4767,7 @@
       <c r="B209" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4781,7 +4778,7 @@
       <c r="B210" t="s">
         <v>304</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4792,7 +4789,7 @@
       <c r="B211" t="s">
         <v>310</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4825,7 +4822,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4836,7 +4833,7 @@
       <c r="B215" t="s">
         <v>316</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4847,7 +4844,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4858,7 +4855,7 @@
       <c r="B217" t="s">
         <v>316</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4869,7 +4866,7 @@
       <c r="B218" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4880,7 +4877,7 @@
       <c r="B219" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4891,7 +4888,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4902,7 +4899,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4913,7 +4910,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4924,7 +4921,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4935,7 +4932,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4946,7 +4943,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4957,7 +4954,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4968,7 +4965,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4979,7 +4976,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4990,7 +4987,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="1" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5001,7 +4998,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="1" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5012,7 +5009,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5023,7 +5020,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5034,7 +5031,7 @@
       <c r="B233" t="s">
         <v>341</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="2" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5045,7 +5042,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5056,7 +5053,7 @@
       <c r="B235" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="2" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5067,7 +5064,7 @@
       <c r="B236" t="s">
         <v>341</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5078,7 +5075,7 @@
       <c r="B237" t="s">
         <v>341</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="2" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5089,7 +5086,7 @@
       <c r="B238" t="s">
         <v>341</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="2" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5100,7 +5097,7 @@
       <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5111,7 +5108,7 @@
       <c r="B240" t="s">
         <v>349</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5133,7 +5130,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5507,7 +5504,7 @@
       <c r="B276" t="s">
         <v>405</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="2" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5518,7 +5515,7 @@
       <c r="B277" t="s">
         <v>405</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5529,7 +5526,7 @@
       <c r="B278" t="s">
         <v>408</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5540,7 +5537,7 @@
       <c r="B279" t="s">
         <v>408</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5551,7 +5548,7 @@
       <c r="B280" t="s">
         <v>412</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5562,7 +5559,7 @@
       <c r="B281" t="s">
         <v>414</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5573,7 +5570,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5584,7 +5581,7 @@
       <c r="B283" t="s">
         <v>417</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="2" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5595,7 +5592,7 @@
       <c r="B284" t="s">
         <v>417</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="2" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6046,7 +6043,7 @@
       <c r="B325" t="s">
         <v>482</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="2" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6057,7 +6054,7 @@
       <c r="B326" t="s">
         <v>482</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="2" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6068,7 +6065,7 @@
       <c r="B327" t="s">
         <v>482</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="2" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6079,7 +6076,7 @@
       <c r="B328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6090,7 +6087,7 @@
       <c r="B329" t="s">
         <v>488</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="2" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6101,7 +6098,7 @@
       <c r="B330" t="s">
         <v>490</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6112,7 +6109,7 @@
       <c r="B331" t="s">
         <v>490</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="2" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6123,7 +6120,7 @@
       <c r="B332" t="s">
         <v>493</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6134,7 +6131,7 @@
       <c r="B333" t="s">
         <v>493</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6145,7 +6142,7 @@
       <c r="B334" t="s">
         <v>493</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6156,7 +6153,7 @@
       <c r="B335" t="s">
         <v>497</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6167,7 +6164,7 @@
       <c r="B336" t="s">
         <v>497</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="2" t="s">
         <v>499</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,8 +2135,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2466,11 +2469,14 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130:C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2479,7 +2485,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2556,7 +2562,7 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2567,7 +2573,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2578,7 +2584,7 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2589,7 +2595,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2600,7 +2606,7 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2611,7 +2617,7 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2622,7 +2628,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2633,7 +2639,7 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2644,7 +2650,7 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2699,7 +2705,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2710,7 +2716,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2721,7 +2727,7 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2732,7 +2738,7 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2743,7 +2749,7 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2765,7 +2771,7 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2776,7 +2782,7 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2787,7 +2793,7 @@
       <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2798,7 +2804,7 @@
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2809,7 +2815,7 @@
       <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2820,7 +2826,7 @@
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2831,7 +2837,7 @@
       <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2842,7 +2848,7 @@
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2853,7 +2859,7 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2864,7 +2870,7 @@
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2875,7 +2881,7 @@
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2886,7 +2892,7 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2897,7 +2903,7 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2908,7 +2914,7 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2919,7 +2925,7 @@
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2930,7 +2936,7 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2941,7 +2947,7 @@
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2952,7 +2958,7 @@
       <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2963,7 +2969,7 @@
       <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2974,7 +2980,7 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2985,7 +2991,7 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2996,7 +3002,7 @@
       <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3007,7 +3013,7 @@
       <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3018,7 +3024,7 @@
       <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3029,7 +3035,7 @@
       <c r="B51" t="s">
         <v>71</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3051,7 +3057,7 @@
       <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3062,7 +3068,7 @@
       <c r="B54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3194,7 +3200,7 @@
       <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3238,7 +3244,7 @@
       <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3249,7 +3255,7 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3260,7 +3266,7 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3271,7 +3277,7 @@
       <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3282,7 +3288,7 @@
       <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3403,7 +3409,7 @@
       <c r="B85" t="s">
         <v>130</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3414,7 +3420,7 @@
       <c r="B86" t="s">
         <v>130</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3425,7 +3431,7 @@
       <c r="B87" t="s">
         <v>130</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3436,7 +3442,7 @@
       <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3447,7 +3453,7 @@
       <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3458,7 +3464,7 @@
       <c r="B90" t="s">
         <v>136</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3469,7 +3475,7 @@
       <c r="B91" t="s">
         <v>136</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3480,7 +3486,7 @@
       <c r="B92" t="s">
         <v>136</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3491,7 +3497,7 @@
       <c r="B93" t="s">
         <v>136</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3502,7 +3508,7 @@
       <c r="B94" t="s">
         <v>136</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3513,7 +3519,7 @@
       <c r="B95" t="s">
         <v>136</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3524,7 +3530,7 @@
       <c r="B96" t="s">
         <v>136</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3535,7 +3541,7 @@
       <c r="B97" t="s">
         <v>136</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3546,7 +3552,7 @@
       <c r="B98" t="s">
         <v>136</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3557,7 +3563,7 @@
       <c r="B99" t="s">
         <v>146</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3568,7 +3574,7 @@
       <c r="B100" t="s">
         <v>146</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3579,7 +3585,7 @@
       <c r="B101" t="s">
         <v>146</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3590,7 +3596,7 @@
       <c r="B102" t="s">
         <v>146</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3601,7 +3607,7 @@
       <c r="B103" t="s">
         <v>146</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3612,7 +3618,7 @@
       <c r="B104" t="s">
         <v>146</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3623,7 +3629,7 @@
       <c r="B105" t="s">
         <v>153</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3634,7 +3640,7 @@
       <c r="B106" t="s">
         <v>153</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3645,7 +3651,7 @@
       <c r="B107" t="s">
         <v>153</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3656,7 +3662,7 @@
       <c r="B108" t="s">
         <v>153</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3667,7 +3673,7 @@
       <c r="B109" t="s">
         <v>153</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3678,7 +3684,7 @@
       <c r="B110" t="s">
         <v>159</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3689,7 +3695,7 @@
       <c r="B111" t="s">
         <v>159</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3700,7 +3706,7 @@
       <c r="B112" t="s">
         <v>159</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3711,7 +3717,7 @@
       <c r="B113" t="s">
         <v>159</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3722,7 +3728,7 @@
       <c r="B114" t="s">
         <v>164</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3733,7 +3739,7 @@
       <c r="B115" t="s">
         <v>164</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3744,7 +3750,7 @@
       <c r="B116" t="s">
         <v>164</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3755,7 +3761,7 @@
       <c r="B117" t="s">
         <v>168</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3898,7 +3904,7 @@
       <c r="B130" t="s">
         <v>191</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3909,7 +3915,7 @@
       <c r="B131" t="s">
         <v>191</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3920,7 +3926,7 @@
       <c r="B132" t="s">
         <v>194</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3931,7 +3937,7 @@
       <c r="B133" t="s">
         <v>194</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3942,7 +3948,7 @@
       <c r="B134" t="s">
         <v>197</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3953,7 +3959,7 @@
       <c r="B135" t="s">
         <v>197</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3964,7 +3970,7 @@
       <c r="B136" t="s">
         <v>197</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3975,7 +3981,7 @@
       <c r="B137" t="s">
         <v>197</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3986,7 +3992,7 @@
       <c r="B138" t="s">
         <v>197</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3997,7 +4003,7 @@
       <c r="B139" t="s">
         <v>204</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4008,7 +4014,7 @@
       <c r="B140" t="s">
         <v>204</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4019,7 +4025,7 @@
       <c r="B141" t="s">
         <v>204</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4030,7 +4036,7 @@
       <c r="B142" t="s">
         <v>204</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4041,7 +4047,7 @@
       <c r="B143" t="s">
         <v>209</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4052,7 +4058,7 @@
       <c r="B144" t="s">
         <v>209</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4063,7 +4069,7 @@
       <c r="B145" t="s">
         <v>212</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4074,7 +4080,7 @@
       <c r="B146" t="s">
         <v>214</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4085,7 +4091,7 @@
       <c r="B147" t="s">
         <v>216</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4096,7 +4102,7 @@
       <c r="B148" t="s">
         <v>219</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4107,7 +4113,7 @@
       <c r="B149" t="s">
         <v>219</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4118,7 +4124,7 @@
       <c r="B150" t="s">
         <v>219</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4129,7 +4135,7 @@
       <c r="B151" t="s">
         <v>223</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4140,7 +4146,7 @@
       <c r="B152" t="s">
         <v>223</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4151,7 +4157,7 @@
       <c r="B153" t="s">
         <v>227</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4162,7 +4168,7 @@
       <c r="B154" t="s">
         <v>227</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4173,7 +4179,7 @@
       <c r="B155" t="s">
         <v>227</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4184,7 +4190,7 @@
       <c r="B156" t="s">
         <v>227</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4195,7 +4201,7 @@
       <c r="B157" t="s">
         <v>232</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4206,7 +4212,7 @@
       <c r="B158" t="s">
         <v>232</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4217,7 +4223,7 @@
       <c r="B159" t="s">
         <v>232</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4228,7 +4234,7 @@
       <c r="B160" t="s">
         <v>236</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4239,7 +4245,7 @@
       <c r="B161" t="s">
         <v>236</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4250,7 +4256,7 @@
       <c r="B162" t="s">
         <v>239</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4261,7 +4267,7 @@
       <c r="B163" t="s">
         <v>239</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4272,7 +4278,7 @@
       <c r="B164" t="s">
         <v>242</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4283,7 +4289,7 @@
       <c r="B165" t="s">
         <v>242</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4646,7 +4652,7 @@
       <c r="B198" t="s">
         <v>290</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="1" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4657,7 +4663,7 @@
       <c r="B199" t="s">
         <v>292</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4668,7 +4674,7 @@
       <c r="B200" t="s">
         <v>292</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4679,7 +4685,7 @@
       <c r="B201" t="s">
         <v>296</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4690,7 +4696,7 @@
       <c r="B202" t="s">
         <v>298</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4701,7 +4707,7 @@
       <c r="B203" t="s">
         <v>298</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4712,7 +4718,7 @@
       <c r="B204" t="s">
         <v>298</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4723,7 +4729,7 @@
       <c r="B205" t="s">
         <v>298</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5141,7 +5147,7 @@
       <c r="B243" t="s">
         <v>355</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5152,7 +5158,7 @@
       <c r="B244" t="s">
         <v>355</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5163,7 +5169,7 @@
       <c r="B245" t="s">
         <v>358</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="1" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5174,7 +5180,7 @@
       <c r="B246" t="s">
         <v>360</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="1" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5185,7 +5191,7 @@
       <c r="B247" t="s">
         <v>360</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="1" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5196,7 +5202,7 @@
       <c r="B248" t="s">
         <v>360</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="1" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5207,7 +5213,7 @@
       <c r="B249" t="s">
         <v>365</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="1" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5218,7 +5224,7 @@
       <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="1" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5229,7 +5235,7 @@
       <c r="B251" t="s">
         <v>365</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5240,7 +5246,7 @@
       <c r="B252" t="s">
         <v>365</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5251,7 +5257,7 @@
       <c r="B253" t="s">
         <v>370</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5262,7 +5268,7 @@
       <c r="B254" t="s">
         <v>372</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5273,7 +5279,7 @@
       <c r="B255" t="s">
         <v>372</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="1" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5284,7 +5290,7 @@
       <c r="B256" t="s">
         <v>372</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="1" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5295,7 +5301,7 @@
       <c r="B257" t="s">
         <v>376</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5306,7 +5312,7 @@
       <c r="B258" t="s">
         <v>376</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="1" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5317,7 +5323,7 @@
       <c r="B259" t="s">
         <v>376</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="1" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5328,7 +5334,7 @@
       <c r="B260" t="s">
         <v>380</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5339,7 +5345,7 @@
       <c r="B261" t="s">
         <v>380</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5350,7 +5356,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="1" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5361,7 +5367,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5372,7 +5378,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5383,7 +5389,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="1" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5394,7 +5400,7 @@
       <c r="B266" t="s">
         <v>389</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="1" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5405,7 +5411,7 @@
       <c r="B267" t="s">
         <v>389</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5416,7 +5422,7 @@
       <c r="B268" t="s">
         <v>389</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="1" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5427,7 +5433,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="1" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5438,7 +5444,7 @@
       <c r="B270" t="s">
         <v>389</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5449,7 +5455,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5460,7 +5466,7 @@
       <c r="B272" t="s">
         <v>395</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="1" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5471,7 +5477,7 @@
       <c r="B273" t="s">
         <v>399</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5482,7 +5488,7 @@
       <c r="B274" t="s">
         <v>402</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="1" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5493,7 +5499,7 @@
       <c r="B275" t="s">
         <v>402</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="1" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5603,7 +5609,7 @@
       <c r="B285" t="s">
         <v>421</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="1" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5614,7 +5620,7 @@
       <c r="B286" t="s">
         <v>421</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5625,7 +5631,7 @@
       <c r="B287" t="s">
         <v>421</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="1" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5636,7 +5642,7 @@
       <c r="B288" t="s">
         <v>421</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5647,7 +5653,7 @@
       <c r="B289" t="s">
         <v>421</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5658,7 +5664,7 @@
       <c r="B290" t="s">
         <v>427</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="1" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5669,7 +5675,7 @@
       <c r="B291" t="s">
         <v>427</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="1" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5680,7 +5686,7 @@
       <c r="B292" t="s">
         <v>427</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5691,7 +5697,7 @@
       <c r="B293" t="s">
         <v>427</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="1" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5702,7 +5708,7 @@
       <c r="B294" t="s">
         <v>427</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="1" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5713,7 +5719,7 @@
       <c r="B295" t="s">
         <v>433</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5724,7 +5730,7 @@
       <c r="B296" t="s">
         <v>433</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="1" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5735,7 +5741,7 @@
       <c r="B297" t="s">
         <v>436</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="1" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5746,7 +5752,7 @@
       <c r="B298" t="s">
         <v>436</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="1" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5757,7 +5763,7 @@
       <c r="B299" t="s">
         <v>440</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5768,7 +5774,7 @@
       <c r="B300" t="s">
         <v>440</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5779,7 +5785,7 @@
       <c r="B301" t="s">
         <v>440</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5790,7 +5796,7 @@
       <c r="B302" t="s">
         <v>444</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="1" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5801,7 +5807,7 @@
       <c r="B303" t="s">
         <v>444</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5812,7 +5818,7 @@
       <c r="B304" t="s">
         <v>444</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5823,7 +5829,7 @@
       <c r="B305" t="s">
         <v>444</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5834,7 +5840,7 @@
       <c r="B306" t="s">
         <v>450</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="1" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5845,7 +5851,7 @@
       <c r="B307" t="s">
         <v>450</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5856,7 +5862,7 @@
       <c r="B308" t="s">
         <v>453</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="1" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5867,7 +5873,7 @@
       <c r="B309" t="s">
         <v>453</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="1" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5878,7 +5884,7 @@
       <c r="B310" t="s">
         <v>453</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="1" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5889,7 +5895,7 @@
       <c r="B311" t="s">
         <v>457</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="1" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5900,7 +5906,7 @@
       <c r="B312" t="s">
         <v>460</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="3" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5911,7 +5917,7 @@
       <c r="B313" t="s">
         <v>462</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="3" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5922,7 +5928,7 @@
       <c r="B314" t="s">
         <v>464</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="3" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5933,7 +5939,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5944,7 +5950,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="3" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5955,7 +5961,7 @@
       <c r="B317" t="s">
         <v>471</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="3" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5966,7 +5972,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5977,7 +5983,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5988,7 +5994,7 @@
       <c r="B320" t="s">
         <v>471</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="3" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5999,7 +6005,7 @@
       <c r="B321" t="s">
         <v>471</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="3" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6010,7 +6016,7 @@
       <c r="B322" t="s">
         <v>471</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="3" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6021,7 +6027,7 @@
       <c r="B323" t="s">
         <v>471</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="3" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6032,7 +6038,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="3" t="s">
         <v>480</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,11 +2135,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2469,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130:C147"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201:C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2485,7 +2482,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2562,7 +2559,7 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2573,7 +2570,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2584,7 +2581,7 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2595,7 +2592,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2606,7 +2603,7 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2617,7 +2614,7 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2628,7 +2625,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2661,7 +2658,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2760,7 +2757,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2782,7 +2779,7 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2793,7 +2790,7 @@
       <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2804,7 +2801,7 @@
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2815,7 +2812,7 @@
       <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2826,7 +2823,7 @@
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2837,7 +2834,7 @@
       <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2848,7 +2845,7 @@
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2859,7 +2856,7 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2870,7 +2867,7 @@
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2881,7 +2878,7 @@
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2892,7 +2889,7 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2903,7 +2900,7 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2914,7 +2911,7 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2925,7 +2922,7 @@
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2936,7 +2933,7 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2947,7 +2944,7 @@
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2958,7 +2955,7 @@
       <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2969,7 +2966,7 @@
       <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2980,7 +2977,7 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2991,7 +2988,7 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3002,7 +2999,7 @@
       <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3013,7 +3010,7 @@
       <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3024,7 +3021,7 @@
       <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3035,7 +3032,7 @@
       <c r="B51" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3057,7 +3054,7 @@
       <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3068,7 +3065,7 @@
       <c r="B54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3079,7 +3076,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3090,7 +3087,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3101,7 +3098,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3112,7 +3109,7 @@
       <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3123,7 +3120,7 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3134,7 +3131,7 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3145,7 +3142,7 @@
       <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3156,7 +3153,7 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3167,7 +3164,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3178,7 +3175,7 @@
       <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3211,7 +3208,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3222,7 +3219,7 @@
       <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3233,7 +3230,7 @@
       <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3354,7 +3351,7 @@
       <c r="B80" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3365,7 +3362,7 @@
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3376,7 +3373,7 @@
       <c r="B82" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3387,7 +3384,7 @@
       <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3398,7 +3395,7 @@
       <c r="B84" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3409,7 +3406,7 @@
       <c r="B85" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3420,7 +3417,7 @@
       <c r="B86" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3431,7 +3428,7 @@
       <c r="B87" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3442,7 +3439,7 @@
       <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3453,7 +3450,7 @@
       <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3464,7 +3461,7 @@
       <c r="B90" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3475,7 +3472,7 @@
       <c r="B91" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3486,7 +3483,7 @@
       <c r="B92" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3497,7 +3494,7 @@
       <c r="B93" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3508,7 +3505,7 @@
       <c r="B94" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3519,7 +3516,7 @@
       <c r="B95" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3530,7 +3527,7 @@
       <c r="B96" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3541,7 +3538,7 @@
       <c r="B97" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3552,7 +3549,7 @@
       <c r="B98" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3563,7 +3560,7 @@
       <c r="B99" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3574,7 +3571,7 @@
       <c r="B100" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3585,7 +3582,7 @@
       <c r="B101" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3596,7 +3593,7 @@
       <c r="B102" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3607,7 +3604,7 @@
       <c r="B103" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3618,7 +3615,7 @@
       <c r="B104" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3629,7 +3626,7 @@
       <c r="B105" t="s">
         <v>153</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3640,7 +3637,7 @@
       <c r="B106" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3651,7 +3648,7 @@
       <c r="B107" t="s">
         <v>153</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3662,7 +3659,7 @@
       <c r="B108" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3673,7 +3670,7 @@
       <c r="B109" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3684,7 +3681,7 @@
       <c r="B110" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3695,7 +3692,7 @@
       <c r="B111" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3706,7 +3703,7 @@
       <c r="B112" t="s">
         <v>159</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3717,7 +3714,7 @@
       <c r="B113" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3728,7 +3725,7 @@
       <c r="B114" t="s">
         <v>164</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3739,7 +3736,7 @@
       <c r="B115" t="s">
         <v>164</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3750,7 +3747,7 @@
       <c r="B116" t="s">
         <v>164</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3761,7 +3758,7 @@
       <c r="B117" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3772,7 +3769,7 @@
       <c r="B118" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3783,7 +3780,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3794,7 +3791,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3805,7 +3802,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3816,7 +3813,7 @@
       <c r="B122" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3827,7 +3824,7 @@
       <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3838,7 +3835,7 @@
       <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3849,7 +3846,7 @@
       <c r="B125" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3860,7 +3857,7 @@
       <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3871,7 +3868,7 @@
       <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3882,7 +3879,7 @@
       <c r="B128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3893,7 +3890,7 @@
       <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3904,7 +3901,7 @@
       <c r="B130" t="s">
         <v>191</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3915,7 +3912,7 @@
       <c r="B131" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3926,7 +3923,7 @@
       <c r="B132" t="s">
         <v>194</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3937,7 +3934,7 @@
       <c r="B133" t="s">
         <v>194</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3948,7 +3945,7 @@
       <c r="B134" t="s">
         <v>197</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3959,7 +3956,7 @@
       <c r="B135" t="s">
         <v>197</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3970,7 +3967,7 @@
       <c r="B136" t="s">
         <v>197</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3981,7 +3978,7 @@
       <c r="B137" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3992,7 +3989,7 @@
       <c r="B138" t="s">
         <v>197</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4003,7 +4000,7 @@
       <c r="B139" t="s">
         <v>204</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4014,7 +4011,7 @@
       <c r="B140" t="s">
         <v>204</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4025,7 +4022,7 @@
       <c r="B141" t="s">
         <v>204</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4036,7 +4033,7 @@
       <c r="B142" t="s">
         <v>204</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4047,7 +4044,7 @@
       <c r="B143" t="s">
         <v>209</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4058,7 +4055,7 @@
       <c r="B144" t="s">
         <v>209</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4069,7 +4066,7 @@
       <c r="B145" t="s">
         <v>212</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4080,7 +4077,7 @@
       <c r="B146" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4091,7 +4088,7 @@
       <c r="B147" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4102,7 +4099,7 @@
       <c r="B148" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4113,7 +4110,7 @@
       <c r="B149" t="s">
         <v>219</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4124,7 +4121,7 @@
       <c r="B150" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4135,7 +4132,7 @@
       <c r="B151" t="s">
         <v>223</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4146,7 +4143,7 @@
       <c r="B152" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4157,7 +4154,7 @@
       <c r="B153" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4168,7 +4165,7 @@
       <c r="B154" t="s">
         <v>227</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4179,7 +4176,7 @@
       <c r="B155" t="s">
         <v>227</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4190,7 +4187,7 @@
       <c r="B156" t="s">
         <v>227</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4201,7 +4198,7 @@
       <c r="B157" t="s">
         <v>232</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4212,7 +4209,7 @@
       <c r="B158" t="s">
         <v>232</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4223,7 +4220,7 @@
       <c r="B159" t="s">
         <v>232</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4234,7 +4231,7 @@
       <c r="B160" t="s">
         <v>236</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4245,7 +4242,7 @@
       <c r="B161" t="s">
         <v>236</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4256,7 +4253,7 @@
       <c r="B162" t="s">
         <v>239</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4267,7 +4264,7 @@
       <c r="B163" t="s">
         <v>239</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4278,7 +4275,7 @@
       <c r="B164" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4289,7 +4286,7 @@
       <c r="B165" t="s">
         <v>242</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4300,7 +4297,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4311,7 +4308,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4322,7 +4319,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4333,7 +4330,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4344,7 +4341,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4355,7 +4352,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4366,7 +4363,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4377,7 +4374,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4388,7 +4385,7 @@
       <c r="B174" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4399,7 +4396,7 @@
       <c r="B175" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4410,7 +4407,7 @@
       <c r="B176" t="s">
         <v>256</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4421,7 +4418,7 @@
       <c r="B177" t="s">
         <v>256</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4432,7 +4429,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4443,7 +4440,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4454,7 +4451,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4465,7 +4462,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4476,7 +4473,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4487,7 +4484,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4498,7 +4495,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4509,7 +4506,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4520,7 +4517,7 @@
       <c r="B186" t="s">
         <v>271</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4531,7 +4528,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4542,7 +4539,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4553,7 +4550,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4564,7 +4561,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4652,7 +4649,7 @@
       <c r="B198" t="s">
         <v>290</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4663,7 +4660,7 @@
       <c r="B199" t="s">
         <v>292</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4674,7 +4671,7 @@
       <c r="B200" t="s">
         <v>292</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4685,7 +4682,7 @@
       <c r="B201" t="s">
         <v>296</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4696,7 +4693,7 @@
       <c r="B202" t="s">
         <v>298</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4707,7 +4704,7 @@
       <c r="B203" t="s">
         <v>298</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4718,7 +4715,7 @@
       <c r="B204" t="s">
         <v>298</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4729,7 +4726,7 @@
       <c r="B205" t="s">
         <v>298</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4740,7 +4737,7 @@
       <c r="B206" t="s">
         <v>304</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4751,7 +4748,7 @@
       <c r="B207" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="1" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4762,7 +4759,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4773,7 +4770,7 @@
       <c r="B209" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="1" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4784,7 +4781,7 @@
       <c r="B210" t="s">
         <v>304</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="1" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4795,7 +4792,7 @@
       <c r="B211" t="s">
         <v>310</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4828,7 +4825,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4839,7 +4836,7 @@
       <c r="B215" t="s">
         <v>316</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="1" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4850,7 +4847,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4861,7 +4858,7 @@
       <c r="B217" t="s">
         <v>316</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="1" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4872,7 +4869,7 @@
       <c r="B218" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4883,7 +4880,7 @@
       <c r="B219" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4894,7 +4891,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4905,7 +4902,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4916,7 +4913,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4927,7 +4924,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4938,7 +4935,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="1" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4949,7 +4946,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4960,7 +4957,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4971,7 +4968,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4982,7 +4979,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="1" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5026,7 +5023,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5037,7 +5034,7 @@
       <c r="B233" t="s">
         <v>341</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5048,7 +5045,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5059,7 +5056,7 @@
       <c r="B235" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5070,7 +5067,7 @@
       <c r="B236" t="s">
         <v>341</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="1" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5081,7 +5078,7 @@
       <c r="B237" t="s">
         <v>341</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="1" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5092,7 +5089,7 @@
       <c r="B238" t="s">
         <v>341</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5103,7 +5100,7 @@
       <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="1" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5114,7 +5111,7 @@
       <c r="B240" t="s">
         <v>349</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="1" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5136,7 +5133,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5147,7 +5144,7 @@
       <c r="B243" t="s">
         <v>355</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="2" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5158,7 +5155,7 @@
       <c r="B244" t="s">
         <v>355</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="2" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5169,7 +5166,7 @@
       <c r="B245" t="s">
         <v>358</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5180,7 +5177,7 @@
       <c r="B246" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="2" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5191,7 +5188,7 @@
       <c r="B247" t="s">
         <v>360</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5202,7 +5199,7 @@
       <c r="B248" t="s">
         <v>360</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="2" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5477,7 +5474,7 @@
       <c r="B273" t="s">
         <v>399</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="2" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5510,7 +5507,7 @@
       <c r="B276" t="s">
         <v>405</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="1" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5521,7 +5518,7 @@
       <c r="B277" t="s">
         <v>405</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5532,7 +5529,7 @@
       <c r="B278" t="s">
         <v>408</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="1" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5543,7 +5540,7 @@
       <c r="B279" t="s">
         <v>408</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5554,7 +5551,7 @@
       <c r="B280" t="s">
         <v>412</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5565,7 +5562,7 @@
       <c r="B281" t="s">
         <v>414</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5576,7 +5573,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5587,7 +5584,7 @@
       <c r="B283" t="s">
         <v>417</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="1" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5598,7 +5595,7 @@
       <c r="B284" t="s">
         <v>417</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5609,7 +5606,7 @@
       <c r="B285" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="2" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5620,7 +5617,7 @@
       <c r="B286" t="s">
         <v>421</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5631,7 +5628,7 @@
       <c r="B287" t="s">
         <v>421</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="2" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5642,7 +5639,7 @@
       <c r="B288" t="s">
         <v>421</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="2" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5653,7 +5650,7 @@
       <c r="B289" t="s">
         <v>421</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5664,7 +5661,7 @@
       <c r="B290" t="s">
         <v>427</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="2" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5675,7 +5672,7 @@
       <c r="B291" t="s">
         <v>427</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C291" s="2" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5686,7 +5683,7 @@
       <c r="B292" t="s">
         <v>427</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="C292" s="2" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5697,7 +5694,7 @@
       <c r="B293" t="s">
         <v>427</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="C293" s="2" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5708,7 +5705,7 @@
       <c r="B294" t="s">
         <v>427</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="C294" s="2" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5719,7 +5716,7 @@
       <c r="B295" t="s">
         <v>433</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C295" s="2" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5730,7 +5727,7 @@
       <c r="B296" t="s">
         <v>433</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C296" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5741,7 +5738,7 @@
       <c r="B297" t="s">
         <v>436</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="2" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5752,7 +5749,7 @@
       <c r="B298" t="s">
         <v>436</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="2" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5840,7 +5837,7 @@
       <c r="B306" t="s">
         <v>450</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="C306" s="2" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5851,7 +5848,7 @@
       <c r="B307" t="s">
         <v>450</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="C307" s="2" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5862,7 +5859,7 @@
       <c r="B308" t="s">
         <v>453</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C308" s="2" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5873,7 +5870,7 @@
       <c r="B309" t="s">
         <v>453</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C309" s="2" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5884,7 +5881,7 @@
       <c r="B310" t="s">
         <v>453</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C310" s="2" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5895,7 +5892,7 @@
       <c r="B311" t="s">
         <v>457</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C311" s="2" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5906,7 +5903,7 @@
       <c r="B312" t="s">
         <v>460</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="2" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5917,7 +5914,7 @@
       <c r="B313" t="s">
         <v>462</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="2" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5928,7 +5925,7 @@
       <c r="B314" t="s">
         <v>464</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5939,7 +5936,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5950,7 +5947,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5961,7 +5958,7 @@
       <c r="B317" t="s">
         <v>471</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="2" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5972,7 +5969,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5983,7 +5980,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="2" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5994,7 +5991,7 @@
       <c r="B320" t="s">
         <v>471</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6005,7 +6002,7 @@
       <c r="B321" t="s">
         <v>471</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="2" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6016,7 +6013,7 @@
       <c r="B322" t="s">
         <v>471</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="2" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6027,7 +6024,7 @@
       <c r="B323" t="s">
         <v>471</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6038,7 +6035,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="2" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6049,7 +6046,7 @@
       <c r="B325" t="s">
         <v>482</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="1" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6060,7 +6057,7 @@
       <c r="B326" t="s">
         <v>482</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="1" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6071,7 +6068,7 @@
       <c r="B327" t="s">
         <v>482</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="1" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6082,7 +6079,7 @@
       <c r="B328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="1" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6093,7 +6090,7 @@
       <c r="B329" t="s">
         <v>488</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="1" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6104,7 +6101,7 @@
       <c r="B330" t="s">
         <v>490</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="1" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6115,7 +6112,7 @@
       <c r="B331" t="s">
         <v>490</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="1" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6126,7 +6123,7 @@
       <c r="B332" t="s">
         <v>493</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="1" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6137,7 +6134,7 @@
       <c r="B333" t="s">
         <v>493</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="1" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6148,7 +6145,7 @@
       <c r="B334" t="s">
         <v>493</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6159,7 +6156,7 @@
       <c r="B335" t="s">
         <v>497</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C335" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6170,7 +6167,7 @@
       <c r="B336" t="s">
         <v>497</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C336" s="1" t="s">
         <v>499</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201:C205"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220:C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2647,7 +2647,7 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="B76" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       <c r="B79" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       <c r="B191" t="s">
         <v>280</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="B192" t="s">
         <v>280</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       <c r="B193" t="s">
         <v>283</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       <c r="B194" t="s">
         <v>283</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       <c r="B195" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       <c r="B196" t="s">
         <v>283</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       <c r="B197" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4770,7 +4770,7 @@
       <c r="B209" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="B212" t="s">
         <v>310</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
       <c r="B213" t="s">
         <v>310</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="B241" t="s">
         <v>349</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       <c r="B249" t="s">
         <v>365</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       <c r="B251" t="s">
         <v>365</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="2" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       <c r="B252" t="s">
         <v>365</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       <c r="B253" t="s">
         <v>370</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="2" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       <c r="B254" t="s">
         <v>372</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="2" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       <c r="B255" t="s">
         <v>372</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="2" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       <c r="B256" t="s">
         <v>372</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="2" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       <c r="B257" t="s">
         <v>376</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="2" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       <c r="B258" t="s">
         <v>376</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="2" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       <c r="B259" t="s">
         <v>376</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="2" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       <c r="B260" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       <c r="B261" t="s">
         <v>380</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="2" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="2" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       <c r="B266" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
       <c r="B267" t="s">
         <v>389</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="2" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       <c r="B268" t="s">
         <v>389</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="2" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       <c r="B270" t="s">
         <v>389</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="2" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5452,7 +5452,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       <c r="B272" t="s">
         <v>395</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       <c r="B274" t="s">
         <v>402</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="2" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       <c r="B275" t="s">
         <v>402</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5760,7 +5760,7 @@
       <c r="B299" t="s">
         <v>440</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="2" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       <c r="B300" t="s">
         <v>440</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="2" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       <c r="B301" t="s">
         <v>440</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="2" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       <c r="B302" t="s">
         <v>444</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="2" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="B303" t="s">
         <v>444</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="2" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
       <c r="B304" t="s">
         <v>444</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="2" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       <c r="B305" t="s">
         <v>444</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="2" t="s">
         <v>448</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220:C224"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2493,7 +2493,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>330</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="D316" sqref="D316"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2636,7 +2636,7 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="C228" sqref="C227:C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2680,7 +2680,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       <c r="B118" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       <c r="B125" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       <c r="B128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>189</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,6 +2143,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2466,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="C228" sqref="C227:C228"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="C224" sqref="C220:C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3109,7 +3112,7 @@
       <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3813,7 +3816,7 @@
       <c r="B122" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3824,7 +3827,7 @@
       <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3835,7 +3838,7 @@
       <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4297,7 +4300,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4308,7 +4311,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4319,7 +4322,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4330,7 +4333,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4341,7 +4344,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4352,7 +4355,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4363,7 +4366,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4374,7 +4377,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4429,7 +4432,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4440,7 +4443,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4451,7 +4454,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4462,7 +4465,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4473,7 +4476,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4484,7 +4487,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4495,7 +4498,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4759,7 +4762,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4847,7 +4850,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4968,7 +4971,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4979,7 +4982,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5133,7 +5136,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5463,7 +5466,7 @@
       <c r="B272" t="s">
         <v>395</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="3" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5573,7 +5576,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="2" t="s">
         <v>416</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2469,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C224" sqref="C220:C224"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3332,7 +3332,7 @@
       <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5466,7 +5466,7 @@
       <c r="B272" t="s">
         <v>395</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="1" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="3" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       <c r="B317" t="s">
         <v>471</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="3" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
       <c r="B320" t="s">
         <v>471</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="3" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       <c r="B321" t="s">
         <v>471</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="3" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="B322" t="s">
         <v>471</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="3" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="B323" t="s">
         <v>471</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="3" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="3" t="s">
         <v>480</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2469,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3332,7 +3332,7 @@
       <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       <c r="B186" t="s">
         <v>271</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="1" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       <c r="B317" t="s">
         <v>471</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="2" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
       <c r="B320" t="s">
         <v>471</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       <c r="B321" t="s">
         <v>471</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="2" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="B322" t="s">
         <v>471</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="2" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="B323" t="s">
         <v>471</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="1" t="s">
         <v>480</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2469,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="G233" sqref="G233"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4971,7 +4971,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="1" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       <c r="B313" t="s">
         <v>462</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="3" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="1" t="s">
         <v>474</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,9 +2143,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2469,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="D315" sqref="D315"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3101,7 +3098,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3123,7 +3120,7 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4828,7 +4825,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5917,7 +5914,7 @@
       <c r="B313" t="s">
         <v>462</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="2" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5939,7 +5936,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5950,7 +5947,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5983,7 +5980,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C319" s="2" t="s">
         <v>474</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="行业" sheetId="1" r:id="rId1"/>
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1532,34 +1532,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1576,14 +1548,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1623,6 +1587,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1673,7 +1652,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,55 +1694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,31 +1718,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,6 +1754,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1820,7 +1778,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,7 +1826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,6 +1862,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1885,21 +1885,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1932,6 +1917,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1990,152 +1990,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2145,55 +2145,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2466,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2493,7 +2496,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2504,7 +2507,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2515,7 +2518,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2526,7 +2529,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2537,7 +2540,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2548,7 +2551,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2570,7 +2573,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2592,7 +2595,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2636,7 +2639,7 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2658,7 +2661,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2680,7 +2683,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2702,7 +2705,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2713,7 +2716,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2724,7 +2727,7 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2735,7 +2738,7 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2746,7 +2749,7 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2768,7 +2771,7 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3076,7 +3079,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3153,7 +3156,7 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3296,7 +3299,7 @@
       <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3307,7 +3310,7 @@
       <c r="B76" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3318,7 +3321,7 @@
       <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3340,7 +3343,7 @@
       <c r="B79" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4297,7 +4300,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4308,7 +4311,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4319,7 +4322,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4330,7 +4333,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4341,7 +4344,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4352,7 +4355,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4363,7 +4366,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4374,7 +4377,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4429,7 +4432,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4440,7 +4443,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4451,7 +4454,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4462,7 +4465,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4473,7 +4476,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4484,7 +4487,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4495,7 +4498,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4506,7 +4509,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4539,7 +4542,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4550,7 +4553,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4561,7 +4564,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4803,7 +4806,7 @@
       <c r="B212" t="s">
         <v>310</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4814,7 +4817,7 @@
       <c r="B213" t="s">
         <v>310</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4825,7 +4828,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4891,7 +4894,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4902,7 +4905,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4913,7 +4916,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4924,7 +4927,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4935,7 +4938,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="1" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4968,7 +4971,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4979,7 +4982,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5023,7 +5026,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5034,7 +5037,7 @@
       <c r="B233" t="s">
         <v>341</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5045,7 +5048,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5210,7 +5213,7 @@
       <c r="B249" t="s">
         <v>365</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5221,7 +5224,7 @@
       <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5232,7 +5235,7 @@
       <c r="B251" t="s">
         <v>365</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5243,7 +5246,7 @@
       <c r="B252" t="s">
         <v>365</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5254,7 +5257,7 @@
       <c r="B253" t="s">
         <v>370</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5298,7 +5301,7 @@
       <c r="B257" t="s">
         <v>376</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5309,7 +5312,7 @@
       <c r="B258" t="s">
         <v>376</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="1" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5331,7 +5334,7 @@
       <c r="B260" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5342,7 +5345,7 @@
       <c r="B261" t="s">
         <v>380</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5474,7 +5477,7 @@
       <c r="B273" t="s">
         <v>399</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5573,7 +5576,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5760,7 +5763,7 @@
       <c r="B299" t="s">
         <v>440</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5771,7 +5774,7 @@
       <c r="B300" t="s">
         <v>440</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5782,7 +5785,7 @@
       <c r="B301" t="s">
         <v>440</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5793,7 +5796,7 @@
       <c r="B302" t="s">
         <v>444</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="1" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5804,7 +5807,7 @@
       <c r="B303" t="s">
         <v>444</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5815,7 +5818,7 @@
       <c r="B304" t="s">
         <v>444</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5826,7 +5829,7 @@
       <c r="B305" t="s">
         <v>444</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6035,7 +6038,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="C324" s="2" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6079,7 +6082,7 @@
       <c r="B328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="C328" s="2" t="s">
         <v>487</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,6 +2143,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2469,8 +2472,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2496,7 +2499,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2507,7 +2510,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2518,7 +2521,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2529,7 +2532,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2540,7 +2543,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2551,7 +2554,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2562,7 +2565,7 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2573,7 +2576,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2584,7 +2587,7 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2595,7 +2598,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2606,7 +2609,7 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2617,7 +2620,7 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2628,7 +2631,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2639,7 +2642,7 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2650,7 +2653,7 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2661,7 +2664,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2672,7 +2675,7 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2683,7 +2686,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2694,7 +2697,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2705,7 +2708,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2716,7 +2719,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2727,7 +2730,7 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2738,7 +2741,7 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2749,7 +2752,7 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2760,7 +2763,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2771,7 +2774,7 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2782,7 +2785,7 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2793,7 +2796,7 @@
       <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2804,7 +2807,7 @@
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2815,7 +2818,7 @@
       <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2826,7 +2829,7 @@
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2837,7 +2840,7 @@
       <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2848,7 +2851,7 @@
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2859,7 +2862,7 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2870,7 +2873,7 @@
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2881,7 +2884,7 @@
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2892,7 +2895,7 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2903,7 +2906,7 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2914,7 +2917,7 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2925,7 +2928,7 @@
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2936,7 +2939,7 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2947,7 +2950,7 @@
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2958,7 +2961,7 @@
       <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2969,7 +2972,7 @@
       <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2980,7 +2983,7 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2991,7 +2994,7 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3002,7 +3005,7 @@
       <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3013,7 +3016,7 @@
       <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3024,7 +3027,7 @@
       <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3035,7 +3038,7 @@
       <c r="B51" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3046,7 +3049,7 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3057,7 +3060,7 @@
       <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3068,7 +3071,7 @@
       <c r="B54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3079,7 +3082,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3090,7 +3093,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3101,7 +3104,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3112,7 +3115,7 @@
       <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3123,7 +3126,7 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3134,7 +3137,7 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3145,7 +3148,7 @@
       <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3156,7 +3159,7 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3167,7 +3170,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3178,7 +3181,7 @@
       <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3189,7 +3192,7 @@
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3200,7 +3203,7 @@
       <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3211,7 +3214,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3222,7 +3225,7 @@
       <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3233,7 +3236,7 @@
       <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3244,7 +3247,7 @@
       <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3255,7 +3258,7 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3266,7 +3269,7 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3277,7 +3280,7 @@
       <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3288,7 +3291,7 @@
       <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3299,7 +3302,7 @@
       <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3310,7 +3313,7 @@
       <c r="B76" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3321,7 +3324,7 @@
       <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3332,7 +3335,7 @@
       <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3343,7 +3346,7 @@
       <c r="B79" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3354,7 +3357,7 @@
       <c r="B80" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3365,7 +3368,7 @@
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3376,7 +3379,7 @@
       <c r="B82" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3387,7 +3390,7 @@
       <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3398,7 +3401,7 @@
       <c r="B84" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3409,7 +3412,7 @@
       <c r="B85" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3420,7 +3423,7 @@
       <c r="B86" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3431,7 +3434,7 @@
       <c r="B87" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3442,7 +3445,7 @@
       <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3453,7 +3456,7 @@
       <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3464,7 +3467,7 @@
       <c r="B90" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3475,7 +3478,7 @@
       <c r="B91" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3486,7 +3489,7 @@
       <c r="B92" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3497,7 +3500,7 @@
       <c r="B93" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3508,7 +3511,7 @@
       <c r="B94" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3519,7 +3522,7 @@
       <c r="B95" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3530,7 +3533,7 @@
       <c r="B96" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3541,7 +3544,7 @@
       <c r="B97" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3552,7 +3555,7 @@
       <c r="B98" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3563,7 +3566,7 @@
       <c r="B99" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3574,7 +3577,7 @@
       <c r="B100" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3585,7 +3588,7 @@
       <c r="B101" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3596,7 +3599,7 @@
       <c r="B102" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3607,7 +3610,7 @@
       <c r="B103" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3618,7 +3621,7 @@
       <c r="B104" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3629,7 +3632,7 @@
       <c r="B105" t="s">
         <v>153</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3640,7 +3643,7 @@
       <c r="B106" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3651,7 +3654,7 @@
       <c r="B107" t="s">
         <v>153</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3662,7 +3665,7 @@
       <c r="B108" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3673,7 +3676,7 @@
       <c r="B109" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3684,7 +3687,7 @@
       <c r="B110" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3695,7 +3698,7 @@
       <c r="B111" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3706,7 +3709,7 @@
       <c r="B112" t="s">
         <v>159</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3717,7 +3720,7 @@
       <c r="B113" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3728,7 +3731,7 @@
       <c r="B114" t="s">
         <v>164</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3739,7 +3742,7 @@
       <c r="B115" t="s">
         <v>164</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3750,7 +3753,7 @@
       <c r="B116" t="s">
         <v>164</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3761,7 +3764,7 @@
       <c r="B117" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3772,7 +3775,7 @@
       <c r="B118" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3783,7 +3786,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3794,7 +3797,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3805,7 +3808,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3816,7 +3819,7 @@
       <c r="B122" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3827,7 +3830,7 @@
       <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3838,7 +3841,7 @@
       <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3849,7 +3852,7 @@
       <c r="B125" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3860,7 +3863,7 @@
       <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3871,7 +3874,7 @@
       <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3882,7 +3885,7 @@
       <c r="B128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3893,7 +3896,7 @@
       <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3904,7 +3907,7 @@
       <c r="B130" t="s">
         <v>191</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3915,7 +3918,7 @@
       <c r="B131" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3926,7 +3929,7 @@
       <c r="B132" t="s">
         <v>194</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3937,7 +3940,7 @@
       <c r="B133" t="s">
         <v>194</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="4" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3948,7 +3951,7 @@
       <c r="B134" t="s">
         <v>197</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="4" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3959,7 +3962,7 @@
       <c r="B135" t="s">
         <v>197</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3970,7 +3973,7 @@
       <c r="B136" t="s">
         <v>197</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3981,7 +3984,7 @@
       <c r="B137" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="4" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3992,7 +3995,7 @@
       <c r="B138" t="s">
         <v>197</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4003,7 +4006,7 @@
       <c r="B139" t="s">
         <v>204</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4014,7 +4017,7 @@
       <c r="B140" t="s">
         <v>204</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4025,7 +4028,7 @@
       <c r="B141" t="s">
         <v>204</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4036,7 +4039,7 @@
       <c r="B142" t="s">
         <v>204</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4047,7 +4050,7 @@
       <c r="B143" t="s">
         <v>209</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4058,7 +4061,7 @@
       <c r="B144" t="s">
         <v>209</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="4" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4069,7 +4072,7 @@
       <c r="B145" t="s">
         <v>212</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4080,7 +4083,7 @@
       <c r="B146" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4091,7 +4094,7 @@
       <c r="B147" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4102,7 +4105,7 @@
       <c r="B148" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4113,7 +4116,7 @@
       <c r="B149" t="s">
         <v>219</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4124,7 +4127,7 @@
       <c r="B150" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4135,7 +4138,7 @@
       <c r="B151" t="s">
         <v>223</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4146,7 +4149,7 @@
       <c r="B152" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4157,7 +4160,7 @@
       <c r="B153" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4168,7 +4171,7 @@
       <c r="B154" t="s">
         <v>227</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4179,7 +4182,7 @@
       <c r="B155" t="s">
         <v>227</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4190,7 +4193,7 @@
       <c r="B156" t="s">
         <v>227</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4201,7 +4204,7 @@
       <c r="B157" t="s">
         <v>232</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4212,7 +4215,7 @@
       <c r="B158" t="s">
         <v>232</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4223,7 +4226,7 @@
       <c r="B159" t="s">
         <v>232</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4234,7 +4237,7 @@
       <c r="B160" t="s">
         <v>236</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4245,7 +4248,7 @@
       <c r="B161" t="s">
         <v>236</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4256,7 +4259,7 @@
       <c r="B162" t="s">
         <v>239</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4267,7 +4270,7 @@
       <c r="B163" t="s">
         <v>239</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4278,7 +4281,7 @@
       <c r="B164" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4289,7 +4292,7 @@
       <c r="B165" t="s">
         <v>242</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4300,7 +4303,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4311,7 +4314,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="3" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4322,7 +4325,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4333,7 +4336,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4344,7 +4347,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="3" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4355,7 +4358,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="3" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4366,7 +4369,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="3" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4377,7 +4380,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4388,7 +4391,7 @@
       <c r="B174" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4399,7 +4402,7 @@
       <c r="B175" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4410,7 +4413,7 @@
       <c r="B176" t="s">
         <v>256</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4421,7 +4424,7 @@
       <c r="B177" t="s">
         <v>256</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4432,7 +4435,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="3" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4443,7 +4446,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4454,7 +4457,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4465,7 +4468,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="3" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4476,7 +4479,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4487,7 +4490,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="3" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4498,7 +4501,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="3" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4509,7 +4512,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4520,7 +4523,7 @@
       <c r="B186" t="s">
         <v>271</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4531,7 +4534,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4553,7 +4556,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="3" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4564,7 +4567,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="3" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4575,7 +4578,7 @@
       <c r="B191" t="s">
         <v>280</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="4" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4586,7 +4589,7 @@
       <c r="B192" t="s">
         <v>280</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="4" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4597,7 +4600,7 @@
       <c r="B193" t="s">
         <v>283</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4608,7 +4611,7 @@
       <c r="B194" t="s">
         <v>283</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="4" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4619,7 +4622,7 @@
       <c r="B195" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4630,7 +4633,7 @@
       <c r="B196" t="s">
         <v>283</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="4" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4641,7 +4644,7 @@
       <c r="B197" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4652,7 +4655,7 @@
       <c r="B198" t="s">
         <v>290</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="4" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4663,7 +4666,7 @@
       <c r="B199" t="s">
         <v>292</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="4" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4674,7 +4677,7 @@
       <c r="B200" t="s">
         <v>292</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="4" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4685,7 +4688,7 @@
       <c r="B201" t="s">
         <v>296</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="4" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4696,7 +4699,7 @@
       <c r="B202" t="s">
         <v>298</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="4" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4707,7 +4710,7 @@
       <c r="B203" t="s">
         <v>298</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4718,7 +4721,7 @@
       <c r="B204" t="s">
         <v>298</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="4" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4729,7 +4732,7 @@
       <c r="B205" t="s">
         <v>298</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="4" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4740,7 +4743,7 @@
       <c r="B206" t="s">
         <v>304</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="3" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4751,7 +4754,7 @@
       <c r="B207" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4762,7 +4765,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4773,7 +4776,7 @@
       <c r="B209" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4784,7 +4787,7 @@
       <c r="B210" t="s">
         <v>304</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="3" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4795,7 +4798,7 @@
       <c r="B211" t="s">
         <v>310</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="3" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4806,7 +4809,7 @@
       <c r="B212" t="s">
         <v>310</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="3" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4817,7 +4820,7 @@
       <c r="B213" t="s">
         <v>310</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="3" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4828,7 +4831,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4839,7 +4842,7 @@
       <c r="B215" t="s">
         <v>316</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4850,7 +4853,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="4" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4861,7 +4864,7 @@
       <c r="B217" t="s">
         <v>316</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="3" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4872,7 +4875,7 @@
       <c r="B218" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="3" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4883,7 +4886,7 @@
       <c r="B219" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="3" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4894,7 +4897,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="3" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4905,7 +4908,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4916,7 +4919,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="3" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4927,7 +4930,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="3" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4938,7 +4941,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="3" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4949,7 +4952,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="3" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4960,7 +4963,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="3" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4971,7 +4974,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4982,7 +4985,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4993,7 +4996,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5004,7 +5007,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="3" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5015,7 +5018,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5026,7 +5029,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="3" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5037,7 +5040,7 @@
       <c r="B233" t="s">
         <v>341</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5048,7 +5051,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="4" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5059,7 +5062,7 @@
       <c r="B235" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5070,7 +5073,7 @@
       <c r="B236" t="s">
         <v>341</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5081,7 +5084,7 @@
       <c r="B237" t="s">
         <v>341</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="3" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5092,7 +5095,7 @@
       <c r="B238" t="s">
         <v>341</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5103,7 +5106,7 @@
       <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5114,7 +5117,7 @@
       <c r="B240" t="s">
         <v>349</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5125,7 +5128,7 @@
       <c r="B241" t="s">
         <v>349</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="4" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5136,7 +5139,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="4" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5147,7 +5150,7 @@
       <c r="B243" t="s">
         <v>355</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="4" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5158,7 +5161,7 @@
       <c r="B244" t="s">
         <v>355</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="4" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5169,7 +5172,7 @@
       <c r="B245" t="s">
         <v>358</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="4" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5180,7 +5183,7 @@
       <c r="B246" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="4" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5191,7 +5194,7 @@
       <c r="B247" t="s">
         <v>360</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="4" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5202,7 +5205,7 @@
       <c r="B248" t="s">
         <v>360</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="4" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5213,7 +5216,7 @@
       <c r="B249" t="s">
         <v>365</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5224,7 +5227,7 @@
       <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="4" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5235,7 +5238,7 @@
       <c r="B251" t="s">
         <v>365</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="4" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5246,7 +5249,7 @@
       <c r="B252" t="s">
         <v>365</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5257,7 +5260,7 @@
       <c r="B253" t="s">
         <v>370</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="3" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5268,7 +5271,7 @@
       <c r="B254" t="s">
         <v>372</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="4" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5279,7 +5282,7 @@
       <c r="B255" t="s">
         <v>372</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="4" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5290,7 +5293,7 @@
       <c r="B256" t="s">
         <v>372</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5301,7 +5304,7 @@
       <c r="B257" t="s">
         <v>376</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="3" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5312,7 +5315,7 @@
       <c r="B258" t="s">
         <v>376</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="3" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5323,7 +5326,7 @@
       <c r="B259" t="s">
         <v>376</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="3" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5334,7 +5337,7 @@
       <c r="B260" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="3" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5345,7 +5348,7 @@
       <c r="B261" t="s">
         <v>380</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="3" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5356,7 +5359,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="4" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5367,7 +5370,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="4" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5378,7 +5381,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="4" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5389,7 +5392,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="4" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5400,7 +5403,7 @@
       <c r="B266" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="4" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5411,7 +5414,7 @@
       <c r="B267" t="s">
         <v>389</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="4" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5422,7 +5425,7 @@
       <c r="B268" t="s">
         <v>389</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="4" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5433,7 +5436,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="4" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5444,7 +5447,7 @@
       <c r="B270" t="s">
         <v>389</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="4" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5455,7 +5458,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="4" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5466,7 +5469,7 @@
       <c r="B272" t="s">
         <v>395</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="3" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5477,7 +5480,7 @@
       <c r="B273" t="s">
         <v>399</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="3" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5488,7 +5491,7 @@
       <c r="B274" t="s">
         <v>402</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="4" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5499,7 +5502,7 @@
       <c r="B275" t="s">
         <v>402</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="4" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5510,7 +5513,7 @@
       <c r="B276" t="s">
         <v>405</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="3" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5521,7 +5524,7 @@
       <c r="B277" t="s">
         <v>405</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="3" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5532,7 +5535,7 @@
       <c r="B278" t="s">
         <v>408</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="3" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5543,7 +5546,7 @@
       <c r="B279" t="s">
         <v>408</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5554,7 +5557,7 @@
       <c r="B280" t="s">
         <v>412</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="3" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5565,7 +5568,7 @@
       <c r="B281" t="s">
         <v>414</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="3" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5576,7 +5579,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="3" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5587,7 +5590,7 @@
       <c r="B283" t="s">
         <v>417</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="3" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5598,7 +5601,7 @@
       <c r="B284" t="s">
         <v>417</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="3" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5609,7 +5612,7 @@
       <c r="B285" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="4" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5620,7 +5623,7 @@
       <c r="B286" t="s">
         <v>421</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="4" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5631,7 +5634,7 @@
       <c r="B287" t="s">
         <v>421</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="4" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5642,7 +5645,7 @@
       <c r="B288" t="s">
         <v>421</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="4" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5653,7 +5656,7 @@
       <c r="B289" t="s">
         <v>421</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5664,7 +5667,7 @@
       <c r="B290" t="s">
         <v>427</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="4" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5675,7 +5678,7 @@
       <c r="B291" t="s">
         <v>427</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="4" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5686,7 +5689,7 @@
       <c r="B292" t="s">
         <v>427</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="4" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5697,7 +5700,7 @@
       <c r="B293" t="s">
         <v>427</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="4" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5708,7 +5711,7 @@
       <c r="B294" t="s">
         <v>427</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="4" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5719,7 +5722,7 @@
       <c r="B295" t="s">
         <v>433</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="4" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5730,7 +5733,7 @@
       <c r="B296" t="s">
         <v>433</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="4" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5741,7 +5744,7 @@
       <c r="B297" t="s">
         <v>436</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="4" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5752,7 +5755,7 @@
       <c r="B298" t="s">
         <v>436</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="4" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5763,7 +5766,7 @@
       <c r="B299" t="s">
         <v>440</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="3" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5774,7 +5777,7 @@
       <c r="B300" t="s">
         <v>440</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="3" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5785,7 +5788,7 @@
       <c r="B301" t="s">
         <v>440</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="3" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5796,7 +5799,7 @@
       <c r="B302" t="s">
         <v>444</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="3" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5807,7 +5810,7 @@
       <c r="B303" t="s">
         <v>444</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="3" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5818,7 +5821,7 @@
       <c r="B304" t="s">
         <v>444</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="3" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5829,7 +5832,7 @@
       <c r="B305" t="s">
         <v>444</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="3" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5840,7 +5843,7 @@
       <c r="B306" t="s">
         <v>450</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="4" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5851,7 +5854,7 @@
       <c r="B307" t="s">
         <v>450</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="4" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5862,7 +5865,7 @@
       <c r="B308" t="s">
         <v>453</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="4" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5873,7 +5876,7 @@
       <c r="B309" t="s">
         <v>453</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="4" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5884,7 +5887,7 @@
       <c r="B310" t="s">
         <v>453</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="4" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5895,7 +5898,7 @@
       <c r="B311" t="s">
         <v>457</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="4" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5906,7 +5909,7 @@
       <c r="B312" t="s">
         <v>460</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="4" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5917,7 +5920,7 @@
       <c r="B313" t="s">
         <v>462</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="4" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5928,7 +5931,7 @@
       <c r="B314" t="s">
         <v>464</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="4" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5939,7 +5942,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5950,7 +5953,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="3" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5961,7 +5964,7 @@
       <c r="B317" t="s">
         <v>471</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="3" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5972,7 +5975,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5983,7 +5986,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5994,7 +5997,7 @@
       <c r="B320" t="s">
         <v>471</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="3" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6005,7 +6008,7 @@
       <c r="B321" t="s">
         <v>471</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="3" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6016,7 +6019,7 @@
       <c r="B322" t="s">
         <v>471</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="3" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6027,7 +6030,7 @@
       <c r="B323" t="s">
         <v>471</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="3" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6038,7 +6041,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="3" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6049,7 +6052,7 @@
       <c r="B325" t="s">
         <v>482</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C325" s="3" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6060,7 +6063,7 @@
       <c r="B326" t="s">
         <v>482</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="C326" s="3" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6071,7 +6074,7 @@
       <c r="B327" t="s">
         <v>482</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="C327" s="3" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6082,7 +6085,7 @@
       <c r="B328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="4" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6093,7 +6096,7 @@
       <c r="B329" t="s">
         <v>488</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="C329" s="3" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6104,7 +6107,7 @@
       <c r="B330" t="s">
         <v>490</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="C330" s="3" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6115,7 +6118,7 @@
       <c r="B331" t="s">
         <v>490</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="C331" s="3" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6126,7 +6129,7 @@
       <c r="B332" t="s">
         <v>493</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="C332" s="3" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6137,7 +6140,7 @@
       <c r="B333" t="s">
         <v>493</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="C333" s="3" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6148,7 +6151,7 @@
       <c r="B334" t="s">
         <v>493</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="C334" s="3" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6159,7 +6162,7 @@
       <c r="B335" t="s">
         <v>497</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C335" s="3" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6170,7 +6173,7 @@
       <c r="B336" t="s">
         <v>497</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C336" s="3" t="s">
         <v>499</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,12 +2143,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2472,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="F305" sqref="F305"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="G314" sqref="G314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2499,7 +2493,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2510,7 +2504,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2521,7 +2515,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2532,7 +2526,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2543,7 +2537,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2554,7 +2548,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2565,7 +2559,7 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2576,7 +2570,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2587,7 +2581,7 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2598,7 +2592,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2609,7 +2603,7 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2620,7 +2614,7 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2631,7 +2625,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2642,7 +2636,7 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2653,7 +2647,7 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2664,7 +2658,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2675,7 +2669,7 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2686,7 +2680,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2697,7 +2691,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2708,7 +2702,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2719,7 +2713,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2730,7 +2724,7 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2741,7 +2735,7 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2752,7 +2746,7 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2763,7 +2757,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2774,7 +2768,7 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2785,7 +2779,7 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2796,7 +2790,7 @@
       <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2807,7 +2801,7 @@
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2818,7 +2812,7 @@
       <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2829,7 +2823,7 @@
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2840,7 +2834,7 @@
       <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2851,7 +2845,7 @@
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2862,7 +2856,7 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2873,7 +2867,7 @@
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2884,7 +2878,7 @@
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2895,7 +2889,7 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2906,7 +2900,7 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2917,7 +2911,7 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2928,7 +2922,7 @@
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2939,7 +2933,7 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2950,7 +2944,7 @@
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2961,7 +2955,7 @@
       <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2972,7 +2966,7 @@
       <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2983,7 +2977,7 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2994,7 +2988,7 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3005,7 +2999,7 @@
       <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3016,7 +3010,7 @@
       <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3027,7 +3021,7 @@
       <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3038,7 +3032,7 @@
       <c r="B51" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3049,7 +3043,7 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3060,7 +3054,7 @@
       <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3071,7 +3065,7 @@
       <c r="B54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3082,7 +3076,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3093,7 +3087,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3104,7 +3098,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3115,7 +3109,7 @@
       <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3126,7 +3120,7 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3137,7 +3131,7 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3148,7 +3142,7 @@
       <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3159,7 +3153,7 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3170,7 +3164,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3181,7 +3175,7 @@
       <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3192,7 +3186,7 @@
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3203,7 +3197,7 @@
       <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3214,7 +3208,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3225,7 +3219,7 @@
       <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3236,7 +3230,7 @@
       <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3247,7 +3241,7 @@
       <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3258,7 +3252,7 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3269,7 +3263,7 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3280,7 +3274,7 @@
       <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3291,7 +3285,7 @@
       <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3302,7 +3296,7 @@
       <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3313,7 +3307,7 @@
       <c r="B76" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3324,7 +3318,7 @@
       <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3335,7 +3329,7 @@
       <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3346,7 +3340,7 @@
       <c r="B79" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3357,7 +3351,7 @@
       <c r="B80" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3368,7 +3362,7 @@
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3379,7 +3373,7 @@
       <c r="B82" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3390,7 +3384,7 @@
       <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3401,7 +3395,7 @@
       <c r="B84" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3412,7 +3406,7 @@
       <c r="B85" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3423,7 +3417,7 @@
       <c r="B86" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3434,7 +3428,7 @@
       <c r="B87" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3445,7 +3439,7 @@
       <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3456,7 +3450,7 @@
       <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3467,7 +3461,7 @@
       <c r="B90" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3478,7 +3472,7 @@
       <c r="B91" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3489,7 +3483,7 @@
       <c r="B92" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3500,7 +3494,7 @@
       <c r="B93" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3511,7 +3505,7 @@
       <c r="B94" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3522,7 +3516,7 @@
       <c r="B95" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3533,7 +3527,7 @@
       <c r="B96" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3544,7 +3538,7 @@
       <c r="B97" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3555,7 +3549,7 @@
       <c r="B98" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3566,7 +3560,7 @@
       <c r="B99" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3577,7 +3571,7 @@
       <c r="B100" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3588,7 +3582,7 @@
       <c r="B101" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3599,7 +3593,7 @@
       <c r="B102" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3610,7 +3604,7 @@
       <c r="B103" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3621,7 +3615,7 @@
       <c r="B104" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3632,7 +3626,7 @@
       <c r="B105" t="s">
         <v>153</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3643,7 +3637,7 @@
       <c r="B106" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3654,7 +3648,7 @@
       <c r="B107" t="s">
         <v>153</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3665,7 +3659,7 @@
       <c r="B108" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3676,7 +3670,7 @@
       <c r="B109" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3687,7 +3681,7 @@
       <c r="B110" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3698,7 +3692,7 @@
       <c r="B111" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3709,7 +3703,7 @@
       <c r="B112" t="s">
         <v>159</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3720,7 +3714,7 @@
       <c r="B113" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3731,7 +3725,7 @@
       <c r="B114" t="s">
         <v>164</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3742,7 +3736,7 @@
       <c r="B115" t="s">
         <v>164</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3753,7 +3747,7 @@
       <c r="B116" t="s">
         <v>164</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3764,7 +3758,7 @@
       <c r="B117" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3775,7 +3769,7 @@
       <c r="B118" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3786,7 +3780,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3797,7 +3791,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3808,7 +3802,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3819,7 +3813,7 @@
       <c r="B122" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3830,7 +3824,7 @@
       <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3841,7 +3835,7 @@
       <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3852,7 +3846,7 @@
       <c r="B125" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3863,7 +3857,7 @@
       <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3874,7 +3868,7 @@
       <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3885,7 +3879,7 @@
       <c r="B128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3896,7 +3890,7 @@
       <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3907,7 +3901,7 @@
       <c r="B130" t="s">
         <v>191</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3918,7 +3912,7 @@
       <c r="B131" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3929,7 +3923,7 @@
       <c r="B132" t="s">
         <v>194</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3940,7 +3934,7 @@
       <c r="B133" t="s">
         <v>194</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3951,7 +3945,7 @@
       <c r="B134" t="s">
         <v>197</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3962,7 +3956,7 @@
       <c r="B135" t="s">
         <v>197</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3973,7 +3967,7 @@
       <c r="B136" t="s">
         <v>197</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3984,7 +3978,7 @@
       <c r="B137" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3995,7 +3989,7 @@
       <c r="B138" t="s">
         <v>197</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4006,7 +4000,7 @@
       <c r="B139" t="s">
         <v>204</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4017,7 +4011,7 @@
       <c r="B140" t="s">
         <v>204</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4028,7 +4022,7 @@
       <c r="B141" t="s">
         <v>204</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4039,7 +4033,7 @@
       <c r="B142" t="s">
         <v>204</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4050,7 +4044,7 @@
       <c r="B143" t="s">
         <v>209</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4061,7 +4055,7 @@
       <c r="B144" t="s">
         <v>209</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4072,7 +4066,7 @@
       <c r="B145" t="s">
         <v>212</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4083,7 +4077,7 @@
       <c r="B146" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4094,7 +4088,7 @@
       <c r="B147" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4105,7 +4099,7 @@
       <c r="B148" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4116,7 +4110,7 @@
       <c r="B149" t="s">
         <v>219</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4127,7 +4121,7 @@
       <c r="B150" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4138,7 +4132,7 @@
       <c r="B151" t="s">
         <v>223</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4149,7 +4143,7 @@
       <c r="B152" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4160,7 +4154,7 @@
       <c r="B153" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4171,7 +4165,7 @@
       <c r="B154" t="s">
         <v>227</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4182,7 +4176,7 @@
       <c r="B155" t="s">
         <v>227</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4193,7 +4187,7 @@
       <c r="B156" t="s">
         <v>227</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4204,7 +4198,7 @@
       <c r="B157" t="s">
         <v>232</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4215,7 +4209,7 @@
       <c r="B158" t="s">
         <v>232</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4226,7 +4220,7 @@
       <c r="B159" t="s">
         <v>232</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4237,7 +4231,7 @@
       <c r="B160" t="s">
         <v>236</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4248,7 +4242,7 @@
       <c r="B161" t="s">
         <v>236</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4259,7 +4253,7 @@
       <c r="B162" t="s">
         <v>239</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4270,7 +4264,7 @@
       <c r="B163" t="s">
         <v>239</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4281,7 +4275,7 @@
       <c r="B164" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4292,7 +4286,7 @@
       <c r="B165" t="s">
         <v>242</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4303,7 +4297,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4314,7 +4308,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4325,7 +4319,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4336,7 +4330,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4347,7 +4341,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4358,7 +4352,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4369,7 +4363,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4380,7 +4374,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4391,7 +4385,7 @@
       <c r="B174" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4402,7 +4396,7 @@
       <c r="B175" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4413,7 +4407,7 @@
       <c r="B176" t="s">
         <v>256</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4424,7 +4418,7 @@
       <c r="B177" t="s">
         <v>256</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4435,7 +4429,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4446,7 +4440,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4457,7 +4451,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4468,7 +4462,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4479,7 +4473,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4490,7 +4484,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4501,7 +4495,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4512,7 +4506,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4523,7 +4517,7 @@
       <c r="B186" t="s">
         <v>271</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4534,7 +4528,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4545,7 +4539,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="1" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4556,7 +4550,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4567,7 +4561,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4578,7 +4572,7 @@
       <c r="B191" t="s">
         <v>280</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4589,7 +4583,7 @@
       <c r="B192" t="s">
         <v>280</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4600,7 +4594,7 @@
       <c r="B193" t="s">
         <v>283</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4611,7 +4605,7 @@
       <c r="B194" t="s">
         <v>283</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4622,7 +4616,7 @@
       <c r="B195" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4633,7 +4627,7 @@
       <c r="B196" t="s">
         <v>283</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4644,7 +4638,7 @@
       <c r="B197" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4655,7 +4649,7 @@
       <c r="B198" t="s">
         <v>290</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4666,7 +4660,7 @@
       <c r="B199" t="s">
         <v>292</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4677,7 +4671,7 @@
       <c r="B200" t="s">
         <v>292</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4688,7 +4682,7 @@
       <c r="B201" t="s">
         <v>296</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4699,7 +4693,7 @@
       <c r="B202" t="s">
         <v>298</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4710,7 +4704,7 @@
       <c r="B203" t="s">
         <v>298</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4721,7 +4715,7 @@
       <c r="B204" t="s">
         <v>298</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4732,7 +4726,7 @@
       <c r="B205" t="s">
         <v>298</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4743,7 +4737,7 @@
       <c r="B206" t="s">
         <v>304</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4754,7 +4748,7 @@
       <c r="B207" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="1" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4765,7 +4759,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4776,7 +4770,7 @@
       <c r="B209" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4787,7 +4781,7 @@
       <c r="B210" t="s">
         <v>304</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="1" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4798,7 +4792,7 @@
       <c r="B211" t="s">
         <v>310</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4809,7 +4803,7 @@
       <c r="B212" t="s">
         <v>310</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4820,7 +4814,7 @@
       <c r="B213" t="s">
         <v>310</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4831,7 +4825,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4842,7 +4836,7 @@
       <c r="B215" t="s">
         <v>316</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="1" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4853,7 +4847,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="2" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4864,7 +4858,7 @@
       <c r="B217" t="s">
         <v>316</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="1" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4875,7 +4869,7 @@
       <c r="B218" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4886,7 +4880,7 @@
       <c r="B219" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4897,7 +4891,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4908,7 +4902,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4919,7 +4913,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4930,7 +4924,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4941,7 +4935,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4952,7 +4946,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4963,7 +4957,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4974,7 +4968,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4985,7 +4979,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="1" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4996,7 +4990,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="1" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5007,7 +5001,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="1" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5018,7 +5012,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5029,7 +5023,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5040,7 +5034,7 @@
       <c r="B233" t="s">
         <v>341</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5051,7 +5045,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5062,7 +5056,7 @@
       <c r="B235" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5073,7 +5067,7 @@
       <c r="B236" t="s">
         <v>341</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="1" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5084,7 +5078,7 @@
       <c r="B237" t="s">
         <v>341</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="1" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5095,7 +5089,7 @@
       <c r="B238" t="s">
         <v>341</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5106,7 +5100,7 @@
       <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="1" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5117,7 +5111,7 @@
       <c r="B240" t="s">
         <v>349</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="1" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5128,7 +5122,7 @@
       <c r="B241" t="s">
         <v>349</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="2" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5139,7 +5133,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5150,7 +5144,7 @@
       <c r="B243" t="s">
         <v>355</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="2" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5161,7 +5155,7 @@
       <c r="B244" t="s">
         <v>355</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="2" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5172,7 +5166,7 @@
       <c r="B245" t="s">
         <v>358</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5183,7 +5177,7 @@
       <c r="B246" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="2" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5194,7 +5188,7 @@
       <c r="B247" t="s">
         <v>360</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5205,7 +5199,7 @@
       <c r="B248" t="s">
         <v>360</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="2" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5216,7 +5210,7 @@
       <c r="B249" t="s">
         <v>365</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5227,7 +5221,7 @@
       <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5238,7 +5232,7 @@
       <c r="B251" t="s">
         <v>365</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="2" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5249,7 +5243,7 @@
       <c r="B252" t="s">
         <v>365</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5260,7 +5254,7 @@
       <c r="B253" t="s">
         <v>370</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5271,7 +5265,7 @@
       <c r="B254" t="s">
         <v>372</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="2" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5282,7 +5276,7 @@
       <c r="B255" t="s">
         <v>372</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="2" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5293,7 +5287,7 @@
       <c r="B256" t="s">
         <v>372</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="2" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5304,7 +5298,7 @@
       <c r="B257" t="s">
         <v>376</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5315,7 +5309,7 @@
       <c r="B258" t="s">
         <v>376</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="1" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5326,7 +5320,7 @@
       <c r="B259" t="s">
         <v>376</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="1" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5337,7 +5331,7 @@
       <c r="B260" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5348,7 +5342,7 @@
       <c r="B261" t="s">
         <v>380</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5359,7 +5353,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C262" s="2" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5370,7 +5364,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5381,7 +5375,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5392,7 +5386,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5403,7 +5397,7 @@
       <c r="B266" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5414,7 +5408,7 @@
       <c r="B267" t="s">
         <v>389</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" s="2" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5425,7 +5419,7 @@
       <c r="B268" t="s">
         <v>389</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="2" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5436,7 +5430,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5447,7 +5441,7 @@
       <c r="B270" t="s">
         <v>389</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="2" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5458,7 +5452,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5469,7 +5463,7 @@
       <c r="B272" t="s">
         <v>395</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="1" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5480,7 +5474,7 @@
       <c r="B273" t="s">
         <v>399</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5491,7 +5485,7 @@
       <c r="B274" t="s">
         <v>402</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" s="2" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5502,7 +5496,7 @@
       <c r="B275" t="s">
         <v>402</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5513,7 +5507,7 @@
       <c r="B276" t="s">
         <v>405</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="1" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5524,7 +5518,7 @@
       <c r="B277" t="s">
         <v>405</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5535,7 +5529,7 @@
       <c r="B278" t="s">
         <v>408</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="1" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5546,7 +5540,7 @@
       <c r="B279" t="s">
         <v>408</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5557,7 +5551,7 @@
       <c r="B280" t="s">
         <v>412</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5568,7 +5562,7 @@
       <c r="B281" t="s">
         <v>414</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5579,7 +5573,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5590,7 +5584,7 @@
       <c r="B283" t="s">
         <v>417</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="1" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5601,7 +5595,7 @@
       <c r="B284" t="s">
         <v>417</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5612,7 +5606,7 @@
       <c r="B285" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="2" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5623,7 +5617,7 @@
       <c r="B286" t="s">
         <v>421</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5634,7 +5628,7 @@
       <c r="B287" t="s">
         <v>421</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" s="2" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5645,7 +5639,7 @@
       <c r="B288" t="s">
         <v>421</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="2" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5656,7 +5650,7 @@
       <c r="B289" t="s">
         <v>421</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5667,7 +5661,7 @@
       <c r="B290" t="s">
         <v>427</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="2" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5678,7 +5672,7 @@
       <c r="B291" t="s">
         <v>427</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="2" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5689,7 +5683,7 @@
       <c r="B292" t="s">
         <v>427</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="2" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5700,7 +5694,7 @@
       <c r="B293" t="s">
         <v>427</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" s="2" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5711,7 +5705,7 @@
       <c r="B294" t="s">
         <v>427</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" s="2" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5722,7 +5716,7 @@
       <c r="B295" t="s">
         <v>433</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" s="2" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5733,7 +5727,7 @@
       <c r="B296" t="s">
         <v>433</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5744,7 +5738,7 @@
       <c r="B297" t="s">
         <v>436</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="2" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5755,7 +5749,7 @@
       <c r="B298" t="s">
         <v>436</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" s="2" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5766,7 +5760,7 @@
       <c r="B299" t="s">
         <v>440</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5777,7 +5771,7 @@
       <c r="B300" t="s">
         <v>440</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5788,7 +5782,7 @@
       <c r="B301" t="s">
         <v>440</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5799,7 +5793,7 @@
       <c r="B302" t="s">
         <v>444</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="1" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5810,7 +5804,7 @@
       <c r="B303" t="s">
         <v>444</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5821,7 +5815,7 @@
       <c r="B304" t="s">
         <v>444</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5832,7 +5826,7 @@
       <c r="B305" t="s">
         <v>444</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5843,7 +5837,7 @@
       <c r="B306" t="s">
         <v>450</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C306" s="2" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5854,7 +5848,7 @@
       <c r="B307" t="s">
         <v>450</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C307" s="2" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5865,7 +5859,7 @@
       <c r="B308" t="s">
         <v>453</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="C308" s="2" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5876,7 +5870,7 @@
       <c r="B309" t="s">
         <v>453</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="C309" s="2" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5887,7 +5881,7 @@
       <c r="B310" t="s">
         <v>453</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C310" s="2" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5898,7 +5892,7 @@
       <c r="B311" t="s">
         <v>457</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C311" s="2" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5909,7 +5903,7 @@
       <c r="B312" t="s">
         <v>460</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C312" s="2" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5920,7 +5914,7 @@
       <c r="B313" t="s">
         <v>462</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C313" s="2" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5931,7 +5925,7 @@
       <c r="B314" t="s">
         <v>464</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C314" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5942,7 +5936,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5953,7 +5947,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="1" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5964,7 +5958,7 @@
       <c r="B317" t="s">
         <v>471</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5975,7 +5969,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5986,7 +5980,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="1" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5997,7 +5991,7 @@
       <c r="B320" t="s">
         <v>471</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="1" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6008,7 +6002,7 @@
       <c r="B321" t="s">
         <v>471</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="1" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6019,7 +6013,7 @@
       <c r="B322" t="s">
         <v>471</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="1" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6030,7 +6024,7 @@
       <c r="B323" t="s">
         <v>471</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="1" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6041,7 +6035,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="1" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6052,7 +6046,7 @@
       <c r="B325" t="s">
         <v>482</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="1" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6063,7 +6057,7 @@
       <c r="B326" t="s">
         <v>482</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="1" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6074,7 +6068,7 @@
       <c r="B327" t="s">
         <v>482</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="1" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6085,7 +6079,7 @@
       <c r="B328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C328" s="2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6096,7 +6090,7 @@
       <c r="B329" t="s">
         <v>488</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="1" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6107,7 +6101,7 @@
       <c r="B330" t="s">
         <v>490</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="1" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6118,7 +6112,7 @@
       <c r="B331" t="s">
         <v>490</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="1" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6129,7 +6123,7 @@
       <c r="B332" t="s">
         <v>493</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="1" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6140,7 +6134,7 @@
       <c r="B333" t="s">
         <v>493</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="1" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6151,7 +6145,7 @@
       <c r="B334" t="s">
         <v>493</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6162,7 +6156,7 @@
       <c r="B335" t="s">
         <v>497</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6173,7 +6167,7 @@
       <c r="B336" t="s">
         <v>497</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="1" t="s">
         <v>499</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="G314" sqref="G314"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4990,7 +4990,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>338</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2482,7 +2482,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4374,7 +4374,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       <c r="B191" t="s">
         <v>280</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="B192" t="s">
         <v>280</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       <c r="B193" t="s">
         <v>283</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       <c r="B194" t="s">
         <v>283</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       <c r="B195" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       <c r="B196" t="s">
         <v>283</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       <c r="B197" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
       <c r="B201" t="s">
         <v>296</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       <c r="B202" t="s">
         <v>298</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       <c r="B203" t="s">
         <v>298</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       <c r="B204" t="s">
         <v>298</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       <c r="B205" t="s">
         <v>298</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="B212" t="s">
         <v>310</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="1" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="1" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="1" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="B241" t="s">
         <v>349</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="1" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       <c r="B249" t="s">
         <v>365</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       <c r="B251" t="s">
         <v>365</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       <c r="B252" t="s">
         <v>365</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="1" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="1" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       <c r="B266" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="1" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
       <c r="B267" t="s">
         <v>389</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       <c r="B268" t="s">
         <v>389</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="1" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="1" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       <c r="B270" t="s">
         <v>389</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5452,7 +5452,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       <c r="B273" t="s">
         <v>399</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="2" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       <c r="B274" t="s">
         <v>402</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="1" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       <c r="B275" t="s">
         <v>402</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="1" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       <c r="B285" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="1" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       <c r="B286" t="s">
         <v>421</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       <c r="B287" t="s">
         <v>421</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="1" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       <c r="B288" t="s">
         <v>421</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       <c r="B289" t="s">
         <v>421</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="B295" t="s">
         <v>433</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="B296" t="s">
         <v>433</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="1" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
       <c r="B328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="1" t="s">
         <v>487</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,6 +2143,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2466,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274:C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2493,7 +2496,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2504,7 +2507,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2515,7 +2518,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2526,7 +2529,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2537,7 +2540,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2548,7 +2551,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2570,7 +2573,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2592,7 +2595,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2669,7 +2672,7 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2691,7 +2694,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3186,7 +3189,7 @@
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3197,7 +3200,7 @@
       <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3241,7 +3244,7 @@
       <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3252,7 +3255,7 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3263,7 +3266,7 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3274,7 +3277,7 @@
       <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3285,7 +3288,7 @@
       <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3802,7 +3805,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4528,7 +4531,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="3" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4539,7 +4542,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4572,7 +4575,7 @@
       <c r="B191" t="s">
         <v>280</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4583,7 +4586,7 @@
       <c r="B192" t="s">
         <v>280</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4594,7 +4597,7 @@
       <c r="B193" t="s">
         <v>283</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="3" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4605,7 +4608,7 @@
       <c r="B194" t="s">
         <v>283</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4616,7 +4619,7 @@
       <c r="B195" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="3" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4627,7 +4630,7 @@
       <c r="B196" t="s">
         <v>283</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="3" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4638,7 +4641,7 @@
       <c r="B197" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4682,7 +4685,7 @@
       <c r="B201" t="s">
         <v>296</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4693,7 +4696,7 @@
       <c r="B202" t="s">
         <v>298</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4704,7 +4707,7 @@
       <c r="B203" t="s">
         <v>298</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4715,7 +4718,7 @@
       <c r="B204" t="s">
         <v>298</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4726,7 +4729,7 @@
       <c r="B205" t="s">
         <v>298</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4759,7 +4762,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="3" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4803,7 +4806,7 @@
       <c r="B212" t="s">
         <v>310</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4847,7 +4850,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4946,7 +4949,7 @@
       <c r="B225" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4957,7 +4960,7 @@
       <c r="B226" t="s">
         <v>328</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4990,7 +4993,7 @@
       <c r="B229" t="s">
         <v>335</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5001,7 +5004,7 @@
       <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5012,7 +5015,7 @@
       <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5045,7 +5048,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5133,7 +5136,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5210,7 +5213,7 @@
       <c r="B249" t="s">
         <v>365</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="2" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5221,7 +5224,7 @@
       <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5232,7 +5235,7 @@
       <c r="B251" t="s">
         <v>365</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="2" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5243,7 +5246,7 @@
       <c r="B252" t="s">
         <v>365</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5320,7 +5323,7 @@
       <c r="B259" t="s">
         <v>376</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="2" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5353,7 +5356,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="2" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5364,7 +5367,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5375,7 +5378,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5386,7 +5389,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5397,7 +5400,7 @@
       <c r="B266" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5408,7 +5411,7 @@
       <c r="B267" t="s">
         <v>389</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="2" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5419,7 +5422,7 @@
       <c r="B268" t="s">
         <v>389</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="2" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5430,7 +5433,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5441,7 +5444,7 @@
       <c r="B270" t="s">
         <v>389</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="2" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5452,7 +5455,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5606,7 +5609,7 @@
       <c r="B285" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="2" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5617,7 +5620,7 @@
       <c r="B286" t="s">
         <v>421</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5628,7 +5631,7 @@
       <c r="B287" t="s">
         <v>421</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="2" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5639,7 +5642,7 @@
       <c r="B288" t="s">
         <v>421</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="2" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5650,7 +5653,7 @@
       <c r="B289" t="s">
         <v>421</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="2" t="s">
         <v>426</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -2135,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,9 +2143,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2469,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274:C275"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2540,7 +2537,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2573,7 +2570,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2705,7 +2702,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2716,7 +2713,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2749,7 +2746,7 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2771,7 +2768,7 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3079,7 +3076,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3090,7 +3087,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3101,7 +3098,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3123,7 +3120,7 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3134,7 +3131,7 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3145,7 +3142,7 @@
       <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3156,7 +3153,7 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3167,7 +3164,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3211,7 +3208,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3222,7 +3219,7 @@
       <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3244,7 +3241,7 @@
       <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3255,7 +3252,7 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3266,7 +3263,7 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3277,7 +3274,7 @@
       <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3299,7 +3296,7 @@
       <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3310,7 +3307,7 @@
       <c r="B76" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3321,7 +3318,7 @@
       <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3343,7 +3340,7 @@
       <c r="B79" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3354,7 +3351,7 @@
       <c r="B80" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3365,7 +3362,7 @@
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3376,7 +3373,7 @@
       <c r="B82" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3387,7 +3384,7 @@
       <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3398,7 +3395,7 @@
       <c r="B84" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3805,7 +3802,7 @@
       <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3849,7 +3846,7 @@
       <c r="B125" t="s">
         <v>182</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4300,7 +4297,7 @@
       <c r="B166" t="s">
         <v>246</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4311,7 +4308,7 @@
       <c r="B167" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4322,7 +4319,7 @@
       <c r="B168" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4333,7 +4330,7 @@
       <c r="B169" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4344,7 +4341,7 @@
       <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4355,7 +4352,7 @@
       <c r="B171" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4366,7 +4363,7 @@
       <c r="B172" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4377,7 +4374,7 @@
       <c r="B173" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4388,7 +4385,7 @@
       <c r="B174" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4399,7 +4396,7 @@
       <c r="B175" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4410,7 +4407,7 @@
       <c r="B176" t="s">
         <v>256</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4421,7 +4418,7 @@
       <c r="B177" t="s">
         <v>256</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4432,7 +4429,7 @@
       <c r="B178" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4443,7 +4440,7 @@
       <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4454,7 +4451,7 @@
       <c r="B180" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4465,7 +4462,7 @@
       <c r="B181" t="s">
         <v>263</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4476,7 +4473,7 @@
       <c r="B182" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4487,7 +4484,7 @@
       <c r="B183" t="s">
         <v>263</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4498,7 +4495,7 @@
       <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4531,7 +4528,7 @@
       <c r="B187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4542,7 +4539,7 @@
       <c r="B188" t="s">
         <v>274</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4597,7 +4594,7 @@
       <c r="B193" t="s">
         <v>283</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4608,7 +4605,7 @@
       <c r="B194" t="s">
         <v>283</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4619,7 +4616,7 @@
       <c r="B195" t="s">
         <v>283</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4630,7 +4627,7 @@
       <c r="B196" t="s">
         <v>283</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4641,7 +4638,7 @@
       <c r="B197" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4740,7 +4737,7 @@
       <c r="B206" t="s">
         <v>304</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4751,7 +4748,7 @@
       <c r="B207" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4762,7 +4759,7 @@
       <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4784,7 +4781,7 @@
       <c r="B210" t="s">
         <v>304</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4795,7 +4792,7 @@
       <c r="B211" t="s">
         <v>310</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4817,7 +4814,7 @@
       <c r="B213" t="s">
         <v>310</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4828,7 +4825,7 @@
       <c r="B214" t="s">
         <v>314</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4839,7 +4836,7 @@
       <c r="B215" t="s">
         <v>316</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4850,7 +4847,7 @@
       <c r="B216" t="s">
         <v>316</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4861,7 +4858,7 @@
       <c r="B217" t="s">
         <v>316</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4872,7 +4869,7 @@
       <c r="B218" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4883,7 +4880,7 @@
       <c r="B219" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4894,7 +4891,7 @@
       <c r="B220" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4905,7 +4902,7 @@
       <c r="B221" t="s">
         <v>322</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4916,7 +4913,7 @@
       <c r="B222" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4927,7 +4924,7 @@
       <c r="B223" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4938,7 +4935,7 @@
       <c r="B224" t="s">
         <v>322</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4971,7 +4968,7 @@
       <c r="B227" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4982,7 +4979,7 @@
       <c r="B228" t="s">
         <v>332</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5026,7 +5023,7 @@
       <c r="B232" t="s">
         <v>339</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5037,7 +5034,7 @@
       <c r="B233" t="s">
         <v>341</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5048,7 +5045,7 @@
       <c r="B234" t="s">
         <v>341</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5059,7 +5056,7 @@
       <c r="B235" t="s">
         <v>341</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="2" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5070,7 +5067,7 @@
       <c r="B236" t="s">
         <v>341</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="2" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5081,7 +5078,7 @@
       <c r="B237" t="s">
         <v>341</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="2" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5092,7 +5089,7 @@
       <c r="B238" t="s">
         <v>341</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="2" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5103,7 +5100,7 @@
       <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5125,7 +5122,7 @@
       <c r="B241" t="s">
         <v>349</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5136,7 +5133,7 @@
       <c r="B242" t="s">
         <v>352</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5356,7 +5353,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="1" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5367,7 +5364,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5378,7 +5375,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5389,7 +5386,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="1" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5433,7 +5430,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="1" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5455,7 +5452,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5510,7 +5507,7 @@
       <c r="B276" t="s">
         <v>405</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="2" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5554,7 +5551,7 @@
       <c r="B280" t="s">
         <v>412</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5565,7 +5562,7 @@
       <c r="B281" t="s">
         <v>414</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5576,7 +5573,7 @@
       <c r="B282" t="s">
         <v>414</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5587,7 +5584,7 @@
       <c r="B283" t="s">
         <v>417</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="2" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5598,7 +5595,7 @@
       <c r="B284" t="s">
         <v>417</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="2" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5774,7 +5771,7 @@
       <c r="B300" t="s">
         <v>440</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="2" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5785,7 +5782,7 @@
       <c r="B301" t="s">
         <v>440</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="2" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5796,7 +5793,7 @@
       <c r="B302" t="s">
         <v>444</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="2" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5807,7 +5804,7 @@
       <c r="B303" t="s">
         <v>444</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="2" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5818,7 +5815,7 @@
       <c r="B304" t="s">
         <v>444</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="2" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5829,7 +5826,7 @@
       <c r="B305" t="s">
         <v>444</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="2" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5939,7 +5936,7 @@
       <c r="B315" t="s">
         <v>466</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5950,7 +5947,7 @@
       <c r="B316" t="s">
         <v>469</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" s="2" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5961,7 +5958,7 @@
       <c r="B317" t="s">
         <v>471</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C317" s="2" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5972,7 +5969,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="C318" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5983,7 +5980,7 @@
       <c r="B319" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C319" s="2" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5994,7 +5991,7 @@
       <c r="B320" t="s">
         <v>471</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C320" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6005,7 +6002,7 @@
       <c r="B321" t="s">
         <v>471</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="C321" s="2" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6016,7 +6013,7 @@
       <c r="B322" t="s">
         <v>471</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C322" s="2" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6027,7 +6024,7 @@
       <c r="B323" t="s">
         <v>471</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="C323" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6038,7 +6035,7 @@
       <c r="B324" t="s">
         <v>479</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="C324" s="2" t="s">
         <v>480</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="行业" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1519,7 +1532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2466,8 +2479,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2537,7 +2550,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2570,7 +2583,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2658,7 +2671,7 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2878,7 +2891,7 @@
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2889,7 +2902,7 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2900,7 +2913,7 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2911,7 +2924,7 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2922,7 +2935,7 @@
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2933,7 +2946,7 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2944,7 +2957,7 @@
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2977,7 +2990,7 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2988,7 +3001,7 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3043,7 +3056,7 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3076,7 +3089,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3164,7 +3177,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3769,7 +3782,7 @@
       <c r="B118" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3780,7 +3793,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3791,7 +3804,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3857,7 +3870,7 @@
       <c r="B126" t="s">
         <v>184</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3868,7 +3881,7 @@
       <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3879,7 +3892,7 @@
       <c r="B128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3890,7 +3903,7 @@
       <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5320,7 +5333,7 @@
       <c r="B259" t="s">
         <v>376</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="1" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5430,7 +5443,7 @@
       <c r="B269" t="s">
         <v>389</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5716,7 +5729,7 @@
       <c r="B295" t="s">
         <v>433</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C295" s="2" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5727,7 +5740,7 @@
       <c r="B296" t="s">
         <v>433</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C296" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5760,7 +5773,7 @@
       <c r="B299" t="s">
         <v>440</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="2" t="s">
         <v>441</v>
       </c>
     </row>

--- a/codes/Utility/行业.xlsx
+++ b/codes/Utility/行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="行业" sheetId="1" r:id="rId1"/>
@@ -2479,8 +2479,8 @@
   <sheetPr/>
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263:C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2649,7 +2649,7 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="B73" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       <c r="B122" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       <c r="B186" t="s">
         <v>271</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       <c r="B189" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
       <c r="B190" t="s">
         <v>277</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       <c r="B240" t="s">
         <v>349</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       <c r="B253" t="s">
         <v>370</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="2" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       <c r="B257" t="s">
         <v>376</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="2" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       <c r="B258" t="s">
         <v>376</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="2" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="B259" t="s">
         <v>376</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="2" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5344,7 +5344,7 @@
       <c r="B260" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       <c r="B261" t="s">
         <v>380</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="2" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="2" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
       <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="B271" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="2" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       <c r="B272" t="s">
         <v>395</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       <c r="B274" t="s">
         <v>402</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="2" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       <c r="B275" t="s">
         <v>402</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       <c r="B276" t="s">
         <v>405</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="1" t="s">
         <v>406</v>
       </c>
     </row>
